--- a/Output/productivity_agent_May_valid.xlsx
+++ b/Output/productivity_agent_May_valid.xlsx
@@ -2546,13 +2546,13 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>2711</v>
+        <v>3473</v>
       </c>
       <c r="S3">
-        <v>5404</v>
+        <v>7241</v>
       </c>
       <c r="T3">
-        <v>2624</v>
+        <v>3498</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -2660,13 +2660,13 @@
         <v>0</v>
       </c>
       <c r="BD3">
-        <v>85.92709984152138</v>
+        <v>110.0792393026941</v>
       </c>
       <c r="BE3">
-        <v>69.23766816143502</v>
+        <v>92.7738629083921</v>
       </c>
       <c r="BF3">
-        <v>153.900293255132</v>
+        <v>205.1612903225806</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -2774,13 +2774,13 @@
         <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.7537464898379068</v>
+        <v>0.9656073623043344</v>
       </c>
       <c r="CQ3">
-        <v>0.4841794976324127</v>
+        <v>0.6487682720866581</v>
       </c>
       <c r="CR3">
-        <v>0.2137504072987944</v>
+        <v>0.2849462365591398</v>
       </c>
       <c r="CS3">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.4993308962416513</v>
+        <v>0.6496515720485971</v>
       </c>
     </row>
     <row r="4" spans="1:105">
@@ -2863,10 +2863,10 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>2245</v>
+        <v>3055</v>
       </c>
       <c r="S4">
-        <v>4832</v>
+        <v>6392</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="BD4">
-        <v>72.18649517684887</v>
+        <v>98.23151125401928</v>
       </c>
       <c r="BE4">
-        <v>73.49049429657795</v>
+        <v>97.21673003802282</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.6332148699723584</v>
+        <v>0.8616799232808708</v>
       </c>
       <c r="CQ4">
-        <v>0.5139195405355101</v>
+        <v>0.6798372729931665</v>
       </c>
       <c r="CR4">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.6525062818888708</v>
+        <v>0.7702856481326475</v>
       </c>
     </row>
     <row r="5" spans="1:105">
@@ -3180,13 +3180,13 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>3112</v>
+        <v>4692</v>
       </c>
       <c r="S5">
-        <v>3951</v>
+        <v>5327</v>
       </c>
       <c r="T5">
-        <v>2583</v>
+        <v>3465</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -3294,13 +3294,13 @@
         <v>0</v>
       </c>
       <c r="BD5">
-        <v>45.58593749999998</v>
+        <v>68.73046874999997</v>
       </c>
       <c r="BE5">
-        <v>63.28350240256272</v>
+        <v>85.32301121195941</v>
       </c>
       <c r="BF5">
-        <v>232.0059880239521</v>
+        <v>311.2275449101796</v>
       </c>
       <c r="BG5">
         <v>0</v>
@@ -3408,13 +3408,13 @@
         <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.3998766447368419</v>
+        <v>0.6028988486842103</v>
       </c>
       <c r="CQ5">
-        <v>0.442541974843096</v>
+        <v>0.5966644140696462</v>
       </c>
       <c r="CR5">
-        <v>0.3222305389221557</v>
+        <v>0.4322604790419162</v>
       </c>
       <c r="CS5">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.4157165437535978</v>
+        <v>0.576134421116554</v>
       </c>
     </row>
     <row r="6" spans="1:105">
@@ -3497,13 +3497,13 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>3937</v>
+        <v>5400</v>
       </c>
       <c r="S6">
-        <v>8840</v>
+        <v>11504</v>
       </c>
       <c r="T6">
-        <v>2297</v>
+        <v>3129</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -3611,13 +3611,13 @@
         <v>0</v>
       </c>
       <c r="BD6">
-        <v>96.29841011006926</v>
+        <v>132.0831634732979</v>
       </c>
       <c r="BE6">
-        <v>92.09932279909708</v>
+        <v>119.8541413439833</v>
       </c>
       <c r="BF6">
-        <v>219.4585987261146</v>
+        <v>298.9490445859873</v>
       </c>
       <c r="BG6">
         <v>0</v>
@@ -3725,13 +3725,13 @@
         <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.8447228957023619</v>
+        <v>1.158624240993841</v>
       </c>
       <c r="CQ6">
-        <v>0.6440512083852943</v>
+        <v>0.838140848559324</v>
       </c>
       <c r="CR6">
-        <v>0.3048036093418259</v>
+        <v>0.4152070063694268</v>
       </c>
       <c r="CS6">
         <v>0</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.6756349365288996</v>
+        <v>0.8970258382365432</v>
       </c>
     </row>
     <row r="7" spans="1:105">
@@ -3814,13 +3814,13 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>5176</v>
+        <v>6837</v>
       </c>
       <c r="S7">
-        <v>6376</v>
+        <v>8565</v>
       </c>
       <c r="T7">
-        <v>1025</v>
+        <v>1420</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -3928,13 +3928,13 @@
         <v>0</v>
       </c>
       <c r="BD7">
-        <v>92.01777777777775</v>
+        <v>121.5466666666666</v>
       </c>
       <c r="BE7">
-        <v>73.24526134405514</v>
+        <v>98.3917288914417</v>
       </c>
       <c r="BF7">
-        <v>157.6923076923077</v>
+        <v>218.4615384615384</v>
       </c>
       <c r="BG7">
         <v>0</v>
@@ -4042,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="CP7">
-        <v>0.8071734892787522</v>
+        <v>1.066198830409356</v>
       </c>
       <c r="CQ7">
-        <v>0.5122046247836024</v>
+        <v>0.6880540481919</v>
       </c>
       <c r="CR7">
-        <v>0.219017094017094</v>
+        <v>0.3034188034188033</v>
       </c>
       <c r="CS7">
         <v>0</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="DA7">
-        <v>0.6102438749696499</v>
+        <v>0.8133578860337347</v>
       </c>
     </row>
     <row r="8" spans="1:105">
@@ -4131,13 +4131,13 @@
         <v>0</v>
       </c>
       <c r="R8">
-        <v>3556</v>
+        <v>5436</v>
       </c>
       <c r="S8">
-        <v>4928</v>
+        <v>6479</v>
       </c>
       <c r="T8">
-        <v>3330</v>
+        <v>4460</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -4245,13 +4245,13 @@
         <v>0</v>
       </c>
       <c r="BD8">
-        <v>57.64928397730343</v>
+        <v>88.12753309916238</v>
       </c>
       <c r="BE8">
-        <v>75.89322381930188</v>
+        <v>99.77926078028752</v>
       </c>
       <c r="BF8">
-        <v>217.8844056706652</v>
+        <v>291.8211559432934</v>
       </c>
       <c r="BG8">
         <v>0</v>
@@ -4359,13 +4359,13 @@
         <v>0</v>
       </c>
       <c r="CP8">
-        <v>0.5056954734851178</v>
+        <v>0.7730485359575647</v>
       </c>
       <c r="CQ8">
-        <v>0.5307218448902229</v>
+        <v>0.697757068393619</v>
       </c>
       <c r="CR8">
-        <v>0.3026172300981461</v>
+        <v>0.4053071610323519</v>
       </c>
       <c r="CS8">
         <v>0</v>
@@ -4392,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="DA8">
-        <v>0.5088951893463169</v>
+        <v>0.7002255348120008</v>
       </c>
     </row>
     <row r="9" spans="1:105">
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>4512</v>
+        <v>5586</v>
       </c>
       <c r="S9">
-        <v>5813</v>
+        <v>8018</v>
       </c>
       <c r="T9">
-        <v>1687</v>
+        <v>2234</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -4562,13 +4562,13 @@
         <v>0</v>
       </c>
       <c r="BD9">
-        <v>84.44167186525266</v>
+        <v>104.5414847161572</v>
       </c>
       <c r="BE9">
-        <v>68.83362936648905</v>
+        <v>94.94375370041446</v>
       </c>
       <c r="BF9">
-        <v>239.8578199052133</v>
+        <v>317.6303317535545</v>
       </c>
       <c r="BG9">
         <v>0</v>
@@ -4676,13 +4676,13 @@
         <v>0</v>
       </c>
       <c r="CP9">
-        <v>0.7407164198706373</v>
+        <v>0.9170305676855895</v>
       </c>
       <c r="CQ9">
-        <v>0.4813540515139094</v>
+        <v>0.6639423335693319</v>
       </c>
       <c r="CR9">
-        <v>0.3331358609794629</v>
+        <v>0.4411532385466035</v>
       </c>
       <c r="CS9">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="DA9">
-        <v>0.5697919671603883</v>
+        <v>0.7464476677242635</v>
       </c>
     </row>
     <row r="10" spans="1:105">
@@ -4765,13 +4765,13 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>5273</v>
+        <v>6818</v>
       </c>
       <c r="S10">
-        <v>6605</v>
+        <v>8573</v>
       </c>
       <c r="T10">
-        <v>1305</v>
+        <v>1768</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -4879,13 +4879,13 @@
         <v>0</v>
       </c>
       <c r="BD10">
-        <v>94.52644158948313</v>
+        <v>122.2228861667165</v>
       </c>
       <c r="BE10">
-        <v>85.18916595012898</v>
+        <v>110.5717970765262</v>
       </c>
       <c r="BF10">
-        <v>212.1951219512195</v>
+        <v>287.479674796748</v>
       </c>
       <c r="BG10">
         <v>0</v>
@@ -4993,13 +4993,13 @@
         <v>0</v>
       </c>
       <c r="CP10">
-        <v>0.8291793121884485</v>
+        <v>1.072130580409794</v>
       </c>
       <c r="CQ10">
-        <v>0.5957284332176852</v>
+        <v>0.7732293501854981</v>
       </c>
       <c r="CR10">
-        <v>0.2947154471544716</v>
+        <v>0.3992773261065944</v>
       </c>
       <c r="CS10">
         <v>0</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="DA10">
-        <v>0.6777846611719038</v>
+        <v>0.8661592253273716</v>
       </c>
     </row>
     <row r="11" spans="1:105">
@@ -5082,13 +5082,13 @@
         <v>0</v>
       </c>
       <c r="R11">
-        <v>3791</v>
+        <v>4888</v>
       </c>
       <c r="S11">
-        <v>3543</v>
+        <v>4645</v>
       </c>
       <c r="T11">
-        <v>1683</v>
+        <v>2302</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -5196,13 +5196,13 @@
         <v>0</v>
       </c>
       <c r="BD11">
-        <v>80.68818730046115</v>
+        <v>104.0368925150763</v>
       </c>
       <c r="BE11">
-        <v>62.0490367775832</v>
+        <v>81.34851138353767</v>
       </c>
       <c r="BF11">
-        <v>204.8275862068966</v>
+        <v>280.1622718052739</v>
       </c>
       <c r="BG11">
         <v>0</v>
@@ -5310,13 +5310,13 @@
         <v>0</v>
       </c>
       <c r="CP11">
-        <v>0.7077911166707118</v>
+        <v>0.9126043203076865</v>
       </c>
       <c r="CQ11">
-        <v>0.4339093480949874</v>
+        <v>0.568870708975788</v>
       </c>
       <c r="CR11">
-        <v>0.2844827586206897</v>
+        <v>0.3891142663962138</v>
       </c>
       <c r="CS11">
         <v>0</v>
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="DA11">
-        <v>0.5240138780214499</v>
+        <v>0.6741692683301438</v>
       </c>
     </row>
     <row r="12" spans="1:105">
@@ -5399,13 +5399,13 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>4430</v>
+        <v>5846</v>
       </c>
       <c r="S12">
-        <v>7880</v>
+        <v>10428</v>
       </c>
       <c r="T12">
-        <v>1381</v>
+        <v>1811</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -5513,13 +5513,13 @@
         <v>0</v>
       </c>
       <c r="BD12">
-        <v>99.62518740629686</v>
+        <v>131.4692653673164</v>
       </c>
       <c r="BE12">
-        <v>101.8526497199483</v>
+        <v>134.7867298578199</v>
       </c>
       <c r="BF12">
-        <v>213.5567010309279</v>
+        <v>280.0515463917526</v>
       </c>
       <c r="BG12">
         <v>0</v>
@@ -5627,13 +5627,13 @@
         <v>0</v>
       </c>
       <c r="CP12">
-        <v>0.8739051526868146</v>
+        <v>1.15323916988874</v>
       </c>
       <c r="CQ12">
-        <v>0.7122562917478902</v>
+        <v>0.9425645444602789</v>
       </c>
       <c r="CR12">
-        <v>0.296606529209622</v>
+        <v>0.3889604810996564</v>
       </c>
       <c r="CS12">
         <v>0</v>
@@ -5660,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="DA12">
-        <v>0.7459498080753462</v>
+        <v>0.9854872757499938</v>
       </c>
     </row>
     <row r="13" spans="1:105">
@@ -5716,13 +5716,13 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>5885</v>
+        <v>8189</v>
       </c>
       <c r="S13">
-        <v>5571</v>
+        <v>7303</v>
       </c>
       <c r="T13">
-        <v>2164</v>
+        <v>2903</v>
       </c>
       <c r="U13">
         <v>0</v>
@@ -5830,13 +5830,13 @@
         <v>0</v>
       </c>
       <c r="BD13">
-        <v>108.1139007960808</v>
+        <v>150.4409063074096</v>
       </c>
       <c r="BE13">
-        <v>76.62998624484183</v>
+        <v>100.4539202200826</v>
       </c>
       <c r="BF13">
-        <v>243.6022514071295</v>
+        <v>326.7917448405253</v>
       </c>
       <c r="BG13">
         <v>0</v>
@@ -5944,13 +5944,13 @@
         <v>0</v>
       </c>
       <c r="CP13">
-        <v>0.9483675508428141</v>
+        <v>1.319657072872015</v>
       </c>
       <c r="CQ13">
-        <v>0.5358740296842086</v>
+        <v>0.7024749665740039</v>
       </c>
       <c r="CR13">
-        <v>0.3383364602876798</v>
+        <v>0.4538774233896185</v>
       </c>
       <c r="CS13">
         <v>0</v>
@@ -5977,7 +5977,7 @@
         <v>0</v>
       </c>
       <c r="DA13">
-        <v>0.6880510074584587</v>
+        <v>0.9332327497687135</v>
       </c>
     </row>
     <row r="14" spans="1:105">
@@ -6033,13 +6033,13 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>4255</v>
+        <v>5841</v>
       </c>
       <c r="S14">
-        <v>5561</v>
+        <v>7475</v>
       </c>
       <c r="T14">
-        <v>2213</v>
+        <v>2941</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -6147,13 +6147,13 @@
         <v>0</v>
       </c>
       <c r="BD14">
-        <v>99.2226972405752</v>
+        <v>136.206762534007</v>
       </c>
       <c r="BE14">
-        <v>71.47814910025707</v>
+        <v>96.07969151670952</v>
       </c>
       <c r="BF14">
-        <v>249.1181988742964</v>
+        <v>331.0694183864916</v>
       </c>
       <c r="BG14">
         <v>0</v>
@@ -6261,13 +6261,13 @@
         <v>0</v>
       </c>
       <c r="CP14">
-        <v>0.870374537198028</v>
+        <v>1.194796162579009</v>
       </c>
       <c r="CQ14">
-        <v>0.4998471965052942</v>
+        <v>0.6718859546623043</v>
       </c>
       <c r="CR14">
-        <v>0.3459974984365228</v>
+        <v>0.459818636647905</v>
       </c>
       <c r="CS14">
         <v>0</v>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="DA14">
-        <v>0.6105213435171959</v>
+        <v>0.8283590287613737</v>
       </c>
     </row>
     <row r="15" spans="1:105">
@@ -6350,13 +6350,13 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>4635</v>
+        <v>6306</v>
       </c>
       <c r="S15">
-        <v>5751</v>
+        <v>7505</v>
       </c>
       <c r="T15">
-        <v>3752</v>
+        <v>4960</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -6464,13 +6464,13 @@
         <v>0</v>
       </c>
       <c r="BD15">
-        <v>81.91458026509572</v>
+        <v>111.4462444771723</v>
       </c>
       <c r="BE15">
-        <v>80.47108208955227</v>
+        <v>105.0139925373135</v>
       </c>
       <c r="BF15">
-        <v>280.6982543640898</v>
+        <v>371.072319201995</v>
       </c>
       <c r="BG15">
         <v>0</v>
@@ -6578,13 +6578,13 @@
         <v>0</v>
       </c>
       <c r="CP15">
-        <v>0.7185489496938221</v>
+        <v>0.9775986357646694</v>
       </c>
       <c r="CQ15">
-        <v>0.5627348397870788</v>
+        <v>0.7343635841770173</v>
       </c>
       <c r="CR15">
-        <v>0.3898586866167914</v>
+        <v>0.515378221113882</v>
       </c>
       <c r="CS15">
         <v>0</v>
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="DA15">
-        <v>0.6087386380535278</v>
+        <v>0.810987831550434</v>
       </c>
     </row>
     <row r="16" spans="1:105">
@@ -6667,13 +6667,13 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>3994</v>
+        <v>5743</v>
       </c>
       <c r="S16">
-        <v>6317</v>
+        <v>8535</v>
       </c>
       <c r="T16">
-        <v>3110</v>
+        <v>4102</v>
       </c>
       <c r="U16">
         <v>0</v>
@@ -6781,13 +6781,13 @@
         <v>0</v>
       </c>
       <c r="BD16">
-        <v>85.46362339514978</v>
+        <v>122.8887303851641</v>
       </c>
       <c r="BE16">
-        <v>86.95113558155539</v>
+        <v>117.4810736407433</v>
       </c>
       <c r="BF16">
-        <v>314.6711635750421</v>
+        <v>415.0421585160202</v>
       </c>
       <c r="BG16">
         <v>0</v>
@@ -6895,13 +6895,13 @@
         <v>0</v>
       </c>
       <c r="CP16">
-        <v>0.7496809069749981</v>
+        <v>1.077971319168106</v>
       </c>
       <c r="CQ16">
-        <v>0.608049899171716</v>
+        <v>0.8215459695156873</v>
       </c>
       <c r="CR16">
-        <v>0.437043282743114</v>
+        <v>0.5764474423833614</v>
       </c>
       <c r="CS16">
         <v>0</v>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="DA16">
-        <v>0.6443923896069803</v>
+        <v>0.8772427632476196</v>
       </c>
     </row>
     <row r="17" spans="1:105">
@@ -6984,10 +6984,10 @@
         <v>0</v>
       </c>
       <c r="R17">
-        <v>875</v>
+        <v>1061</v>
       </c>
       <c r="S17">
-        <v>1229</v>
+        <v>1564</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -7098,10 +7098,10 @@
         <v>0</v>
       </c>
       <c r="BD17">
-        <v>92.92035398230087</v>
+        <v>112.6725663716814</v>
       </c>
       <c r="BE17">
-        <v>70.9720885466795</v>
+        <v>90.31761308950914</v>
       </c>
       <c r="BF17">
         <v>0</v>
@@ -7212,10 +7212,10 @@
         <v>0</v>
       </c>
       <c r="CP17">
-        <v>0.815090824406148</v>
+        <v>0.9883558453656263</v>
       </c>
       <c r="CQ17">
-        <v>0.4963083115152412</v>
+        <v>0.6315916999266373</v>
       </c>
       <c r="CR17">
         <v>0</v>
@@ -7245,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="DA17">
-        <v>0.6482771140242116</v>
+        <v>0.7041473524032056</v>
       </c>
     </row>
     <row r="18" spans="1:105">
@@ -7301,13 +7301,13 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>2828</v>
+        <v>4007</v>
       </c>
       <c r="S18">
-        <v>1104</v>
+        <v>1408</v>
       </c>
       <c r="T18">
-        <v>1804</v>
+        <v>2400</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -7415,13 +7415,13 @@
         <v>0</v>
       </c>
       <c r="BD18">
-        <v>78.77437325905292</v>
+        <v>111.6155988857939</v>
       </c>
       <c r="BE18">
-        <v>63.44827586206896</v>
+        <v>80.91954022988504</v>
       </c>
       <c r="BF18">
-        <v>185.6603773584905</v>
+        <v>246.9982847341337</v>
       </c>
       <c r="BG18">
         <v>0</v>
@@ -7529,13 +7529,13 @@
         <v>0</v>
       </c>
       <c r="CP18">
-        <v>0.6910032742022186</v>
+        <v>0.9790842007525778</v>
       </c>
       <c r="CQ18">
-        <v>0.443694236797685</v>
+        <v>0.5658709106984968</v>
       </c>
       <c r="CR18">
-        <v>0.2578616352201257</v>
+        <v>0.3430531732418524</v>
       </c>
       <c r="CS18">
         <v>0</v>
@@ -7562,7 +7562,7 @@
         <v>0</v>
       </c>
       <c r="DA18">
-        <v>0.6307973440124807</v>
+        <v>0.7977945033192816</v>
       </c>
     </row>
     <row r="19" spans="1:105">
@@ -7618,13 +7618,13 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>1984</v>
+        <v>2734</v>
       </c>
       <c r="S19">
-        <v>2319</v>
+        <v>3166</v>
       </c>
       <c r="T19">
-        <v>384</v>
+        <v>547</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -7732,13 +7732,13 @@
         <v>0</v>
       </c>
       <c r="BD19">
-        <v>70.06474396703943</v>
+        <v>96.55091230135373</v>
       </c>
       <c r="BE19">
-        <v>61.29515418502202</v>
+        <v>83.68281938325991</v>
       </c>
       <c r="BF19">
-        <v>198.6206896551724</v>
+        <v>282.9310344827587</v>
       </c>
       <c r="BG19">
         <v>0</v>
@@ -7846,13 +7846,13 @@
         <v>0</v>
       </c>
       <c r="CP19">
-        <v>0.6146030172547319</v>
+        <v>0.8469378272048573</v>
       </c>
       <c r="CQ19">
-        <v>0.4286374418533008</v>
+        <v>0.5851945411416777</v>
       </c>
       <c r="CR19">
-        <v>0.2758620689655173</v>
+        <v>0.3929597701149426</v>
       </c>
       <c r="CS19">
         <v>0</v>
@@ -7879,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="DA19">
-        <v>0.5114110218523119</v>
+        <v>0.6933321249545539</v>
       </c>
     </row>
     <row r="20" spans="1:105">
@@ -7935,10 +7935,10 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>953</v>
+        <v>1494</v>
       </c>
       <c r="S20">
-        <v>954</v>
+        <v>1303</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -8049,10 +8049,10 @@
         <v>0</v>
       </c>
       <c r="BD20">
-        <v>45.59808612440192</v>
+        <v>71.48325358851675</v>
       </c>
       <c r="BE20">
-        <v>56.28318584070797</v>
+        <v>76.8731563421829</v>
       </c>
       <c r="BF20">
         <v>0</v>
@@ -8163,10 +8163,10 @@
         <v>0</v>
       </c>
       <c r="CP20">
-        <v>0.3999832116175607</v>
+        <v>0.627046084109796</v>
       </c>
       <c r="CQ20">
-        <v>0.393588712172783</v>
+        <v>0.5375745198754048</v>
       </c>
       <c r="CR20">
         <v>0</v>
@@ -8196,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="DA20">
-        <v>0.5612904937817218</v>
+        <v>0.6677523230505685</v>
       </c>
     </row>
     <row r="21" spans="1:105">
@@ -8252,13 +8252,13 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>302</v>
+        <v>364</v>
       </c>
       <c r="S21">
-        <v>1503</v>
+        <v>1927</v>
       </c>
       <c r="T21">
-        <v>950</v>
+        <v>1255</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -8366,13 +8366,13 @@
         <v>0</v>
       </c>
       <c r="BD21">
-        <v>118.4313725490196</v>
+        <v>142.7450980392157</v>
       </c>
       <c r="BE21">
-        <v>65.30050687907313</v>
+        <v>83.72194062273714</v>
       </c>
       <c r="BF21">
-        <v>201.4134275618374</v>
+        <v>266.077738515901</v>
       </c>
       <c r="BG21">
         <v>0</v>
@@ -8480,13 +8480,13 @@
         <v>0</v>
       </c>
       <c r="CP21">
-        <v>1.038871689026488</v>
+        <v>1.252149982800138</v>
       </c>
       <c r="CQ21">
-        <v>0.4566469012522596</v>
+        <v>0.5854681162429171</v>
       </c>
       <c r="CR21">
-        <v>0.2797408716136631</v>
+        <v>0.3695524146054181</v>
       </c>
       <c r="CS21">
         <v>0</v>
@@ -8513,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="DA21">
-        <v>0.7230513115687289</v>
+        <v>0.7892365411665223</v>
       </c>
     </row>
     <row r="22" spans="1:105">
@@ -8569,10 +8569,10 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>760</v>
+        <v>921</v>
       </c>
       <c r="S22">
-        <v>1077</v>
+        <v>1410</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -8683,10 +8683,10 @@
         <v>0</v>
       </c>
       <c r="BD22">
-        <v>82.45931283905968</v>
+        <v>99.92766726943943</v>
       </c>
       <c r="BE22">
-        <v>62.1944177093359</v>
+        <v>81.42444658325313</v>
       </c>
       <c r="BF22">
         <v>0</v>
@@ -8797,10 +8797,10 @@
         <v>0</v>
       </c>
       <c r="CP22">
-        <v>0.7233273056057866</v>
+        <v>0.876558484819644</v>
       </c>
       <c r="CQ22">
-        <v>0.4349259979673839</v>
+        <v>0.5694017243584135</v>
       </c>
       <c r="CR22">
         <v>0</v>
@@ -8830,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="DA22">
-        <v>0.5351055979196684</v>
+        <v>0.6760962523326978</v>
       </c>
     </row>
     <row r="23" spans="1:105">
@@ -8886,10 +8886,10 @@
         <v>0</v>
       </c>
       <c r="R23">
-        <v>1238</v>
+        <v>1787</v>
       </c>
       <c r="S23">
-        <v>1227</v>
+        <v>1678</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -9000,10 +9000,10 @@
         <v>0</v>
       </c>
       <c r="BD23">
-        <v>60.68627450980394</v>
+        <v>87.5980392156863</v>
       </c>
       <c r="BE23">
-        <v>61.14617940199336</v>
+        <v>83.62126245847176</v>
       </c>
       <c r="BF23">
         <v>0</v>
@@ -9114,10 +9114,10 @@
         <v>0</v>
       </c>
       <c r="CP23">
-        <v>0.5323357413140696</v>
+        <v>0.7684038527691781</v>
       </c>
       <c r="CQ23">
-        <v>0.4275956601537997</v>
+        <v>0.5847640731361662</v>
       </c>
       <c r="CR23">
         <v>0</v>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="DA23">
-        <v>0.5464500928566589</v>
+        <v>0.6829554133396226</v>
       </c>
     </row>
     <row r="24" spans="1:105">
@@ -9203,10 +9203,10 @@
         <v>0</v>
       </c>
       <c r="R24">
-        <v>1244</v>
+        <v>1632</v>
       </c>
       <c r="S24">
-        <v>1816</v>
+        <v>2436</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -9317,10 +9317,10 @@
         <v>0</v>
       </c>
       <c r="BD24">
-        <v>68.98336414048059</v>
+        <v>90.49907578558225</v>
       </c>
       <c r="BE24">
-        <v>65.99636583888552</v>
+        <v>88.52816474863718</v>
       </c>
       <c r="BF24">
         <v>0</v>
@@ -9431,10 +9431,10 @@
         <v>0</v>
       </c>
       <c r="CP24">
-        <v>0.6051172293024613</v>
+        <v>0.7938515419787917</v>
       </c>
       <c r="CQ24">
-        <v>0.4615130478243743</v>
+        <v>0.619078075165295</v>
       </c>
       <c r="CR24">
         <v>0</v>
@@ -9464,7 +9464,7 @@
         <v>0</v>
       </c>
       <c r="DA24">
-        <v>0.5097968734668376</v>
+        <v>0.6728412507335685</v>
       </c>
     </row>
     <row r="25" spans="1:105">
@@ -9520,13 +9520,13 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>1529</v>
+        <v>2162</v>
       </c>
       <c r="S25">
-        <v>1851</v>
+        <v>2528</v>
       </c>
       <c r="T25">
-        <v>2773</v>
+        <v>3666</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -9634,13 +9634,13 @@
         <v>0</v>
       </c>
       <c r="BD25">
-        <v>59.53277092796885</v>
+        <v>84.17910447761194</v>
       </c>
       <c r="BE25">
-        <v>75.96443228454173</v>
+        <v>103.7482900136799</v>
       </c>
       <c r="BF25">
-        <v>262.8436018957346</v>
+        <v>347.4881516587678</v>
       </c>
       <c r="BG25">
         <v>0</v>
@@ -9748,13 +9748,13 @@
         <v>0</v>
       </c>
       <c r="CP25">
-        <v>0.5222172888418321</v>
+        <v>0.7384131971720346</v>
       </c>
       <c r="CQ25">
-        <v>0.5312198061856065</v>
+        <v>0.725512517578181</v>
       </c>
       <c r="CR25">
-        <v>0.3650605581885203</v>
+        <v>0.4826224328593997</v>
       </c>
       <c r="CS25">
         <v>0</v>
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
       <c r="DA25">
-        <v>0.4869853952312427</v>
+        <v>0.6645998034129204</v>
       </c>
     </row>
     <row r="26" spans="1:105">
@@ -9837,13 +9837,13 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>1863</v>
+        <v>2553</v>
       </c>
       <c r="S26">
-        <v>985</v>
+        <v>1290</v>
       </c>
       <c r="T26">
-        <v>413</v>
+        <v>548</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>0</v>
       </c>
       <c r="BD26">
-        <v>70.70208728652752</v>
+        <v>96.88804554079697</v>
       </c>
       <c r="BE26">
-        <v>70.86330935251799</v>
+        <v>92.80575539568345</v>
       </c>
       <c r="BF26">
-        <v>119.7101449275362</v>
+        <v>158.8405797101449</v>
       </c>
       <c r="BG26">
         <v>0</v>
@@ -10065,13 +10065,13 @@
         <v>0</v>
       </c>
       <c r="CP26">
-        <v>0.6201937481274343</v>
+        <v>0.8498951363227804</v>
       </c>
       <c r="CQ26">
-        <v>0.4955476178497761</v>
+        <v>0.6489912964733108</v>
       </c>
       <c r="CR26">
-        <v>0.1662640901771336</v>
+        <v>0.2206119162640902</v>
       </c>
       <c r="CS26">
         <v>0</v>
@@ -10098,7 +10098,7 @@
         <v>0</v>
       </c>
       <c r="DA26">
-        <v>0.6280065184427631</v>
+        <v>0.789751503217029</v>
       </c>
     </row>
     <row r="27" spans="1:105">
@@ -10154,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>1698</v>
+        <v>2632</v>
       </c>
       <c r="S27">
-        <v>1409</v>
+        <v>1846</v>
       </c>
       <c r="T27">
         <v>0</v>
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="BD27">
-        <v>45.91257323118523</v>
+        <v>71.16719242902209</v>
       </c>
       <c r="BE27">
-        <v>55.58185404339251</v>
+        <v>72.82051282051283</v>
       </c>
       <c r="BF27">
         <v>0</v>
@@ -10382,10 +10382,10 @@
         <v>0</v>
       </c>
       <c r="CP27">
-        <v>0.4027418704489932</v>
+        <v>0.6242736177984394</v>
       </c>
       <c r="CQ27">
-        <v>0.3886842940097379</v>
+        <v>0.5092343553882016</v>
       </c>
       <c r="CR27">
         <v>0</v>
@@ -10415,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="DA27">
-        <v>0.3843685491613116</v>
+        <v>0.55184636323701</v>
       </c>
     </row>
     <row r="28" spans="1:105">
@@ -10471,13 +10471,13 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>2375</v>
+        <v>2922</v>
       </c>
       <c r="S28">
-        <v>2012</v>
+        <v>2665</v>
       </c>
       <c r="T28">
-        <v>305</v>
+        <v>421</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="BD28">
-        <v>67.69596199524941</v>
+        <v>83.28741092636579</v>
       </c>
       <c r="BE28">
-        <v>59.23454367026496</v>
+        <v>78.45927379784102</v>
       </c>
       <c r="BF28">
-        <v>147.5806451612903</v>
+        <v>203.7096774193548</v>
       </c>
       <c r="BG28">
         <v>0</v>
@@ -10699,13 +10699,13 @@
         <v>0</v>
       </c>
       <c r="CP28">
-        <v>0.5938242280285035</v>
+        <v>0.7305913239154894</v>
       </c>
       <c r="CQ28">
-        <v>0.414227578113741</v>
+        <v>0.5486662503345526</v>
       </c>
       <c r="CR28">
-        <v>0.2049731182795699</v>
+        <v>0.2829301075268817</v>
       </c>
       <c r="CS28">
         <v>0</v>
@@ -10732,7 +10732,7 @@
         <v>0</v>
       </c>
       <c r="DA28">
-        <v>0.5044470320837526</v>
+        <v>0.6291573566516745</v>
       </c>
     </row>
     <row r="29" spans="1:105">
@@ -10788,13 +10788,13 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>1148</v>
+        <v>1859</v>
       </c>
       <c r="S29">
-        <v>1505</v>
+        <v>1976</v>
       </c>
       <c r="T29">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -10902,13 +10902,13 @@
         <v>0</v>
       </c>
       <c r="BD29">
-        <v>58.57142857142857</v>
+        <v>94.8469387755102</v>
       </c>
       <c r="BE29">
-        <v>62.83924843423799</v>
+        <v>82.50521920668058</v>
       </c>
       <c r="BF29">
-        <v>30.94170403587444</v>
+        <v>43.31838565022422</v>
       </c>
       <c r="BG29">
         <v>0</v>
@@ -11016,13 +11016,13 @@
         <v>0</v>
       </c>
       <c r="CP29">
-        <v>0.5137844611528822</v>
+        <v>0.8319906910132473</v>
       </c>
       <c r="CQ29">
-        <v>0.43943530373593</v>
+        <v>0.5769595748718922</v>
       </c>
       <c r="CR29">
-        <v>0.0429745889387145</v>
+        <v>0.0601644245142003</v>
       </c>
       <c r="CS29">
         <v>0</v>
@@ -11049,7 +11049,7 @@
         <v>0</v>
       </c>
       <c r="DA29">
-        <v>0.4005511405016611</v>
+        <v>0.5195888239738489</v>
       </c>
     </row>
     <row r="30" spans="1:105">
@@ -11105,13 +11105,13 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>1640</v>
+        <v>1971</v>
       </c>
       <c r="S30">
-        <v>2039</v>
+        <v>2588</v>
       </c>
       <c r="T30">
-        <v>1070</v>
+        <v>1423</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -11219,13 +11219,13 @@
         <v>0</v>
       </c>
       <c r="BD30">
-        <v>74.48902346707041</v>
+        <v>89.52308856926571</v>
       </c>
       <c r="BE30">
-        <v>69.78893325727324</v>
+        <v>88.57957786651454</v>
       </c>
       <c r="BF30">
-        <v>166.7532467532467</v>
+        <v>221.7662337662338</v>
       </c>
       <c r="BG30">
         <v>0</v>
@@ -11333,13 +11333,13 @@
         <v>0</v>
       </c>
       <c r="CP30">
-        <v>0.6534124865532492</v>
+        <v>0.7852902506075939</v>
       </c>
       <c r="CQ30">
-        <v>0.4880344983026101</v>
+        <v>0.6194376074581437</v>
       </c>
       <c r="CR30">
-        <v>0.2316017316017316</v>
+        <v>0.308008658008658</v>
       </c>
       <c r="CS30">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>0</v>
       </c>
       <c r="DA30">
-        <v>0.4980138321766787</v>
+        <v>0.6063996571846972</v>
       </c>
     </row>
     <row r="31" spans="1:105">
@@ -11422,13 +11422,13 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <v>770</v>
+        <v>1354</v>
       </c>
       <c r="S31">
-        <v>1339</v>
+        <v>1716</v>
       </c>
       <c r="T31">
-        <v>775</v>
+        <v>1003</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -11536,13 +11536,13 @@
         <v>0</v>
       </c>
       <c r="BD31">
-        <v>54.739336492891</v>
+        <v>96.25592417061611</v>
       </c>
       <c r="BE31">
-        <v>69.86086956521737</v>
+        <v>89.53043478260868</v>
       </c>
       <c r="BF31">
-        <v>170.3296703296703</v>
+        <v>220.4395604395604</v>
       </c>
       <c r="BG31">
         <v>0</v>
@@ -11650,13 +11650,13 @@
         <v>0</v>
       </c>
       <c r="CP31">
-        <v>0.480169618358693</v>
+        <v>0.8443502120229484</v>
       </c>
       <c r="CQ31">
-        <v>0.4885375494071145</v>
+        <v>0.6260869565217391</v>
       </c>
       <c r="CR31">
-        <v>0.2365689865689866</v>
+        <v>0.3061660561660562</v>
       </c>
       <c r="CS31">
         <v>0</v>
@@ -11683,7 +11683,7 @@
         <v>0</v>
       </c>
       <c r="DA31">
-        <v>0.596748640166286</v>
+        <v>0.7500873234683271</v>
       </c>
     </row>
     <row r="32" spans="1:105">
@@ -11739,13 +11739,13 @@
         <v>0</v>
       </c>
       <c r="R32">
-        <v>1159</v>
+        <v>1489</v>
       </c>
       <c r="S32">
-        <v>1308</v>
+        <v>1720</v>
       </c>
       <c r="T32">
-        <v>993</v>
+        <v>1315</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -11853,13 +11853,13 @@
         <v>0</v>
       </c>
       <c r="BD32">
-        <v>88.5859872611465</v>
+        <v>113.8089171974522</v>
       </c>
       <c r="BE32">
-        <v>62.53386454183266</v>
+        <v>82.23107569721115</v>
       </c>
       <c r="BF32">
-        <v>209.0526315789474</v>
+        <v>276.8421052631579</v>
       </c>
       <c r="BG32">
         <v>0</v>
@@ -11967,13 +11967,13 @@
         <v>0</v>
       </c>
       <c r="CP32">
-        <v>0.7770700636942676</v>
+        <v>0.9983238350653706</v>
       </c>
       <c r="CQ32">
-        <v>0.4372997520407879</v>
+        <v>0.5750424873930849</v>
       </c>
       <c r="CR32">
-        <v>0.2903508771929825</v>
+        <v>0.3845029239766082</v>
       </c>
       <c r="CS32">
         <v>0</v>
@@ -12000,7 +12000,7 @@
         <v>0</v>
       </c>
       <c r="DA32">
-        <v>0.4881729608491611</v>
+        <v>0.6015603512915486</v>
       </c>
     </row>
     <row r="33" spans="1:105">
@@ -12373,13 +12373,13 @@
         <v>0</v>
       </c>
       <c r="R34">
-        <v>2514</v>
+        <v>3593</v>
       </c>
       <c r="S34">
-        <v>3402</v>
+        <v>4577</v>
       </c>
       <c r="T34">
-        <v>272</v>
+        <v>379</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -12487,13 +12487,13 @@
         <v>0</v>
       </c>
       <c r="BD34">
-        <v>79.64097148891236</v>
+        <v>113.8225976768743</v>
       </c>
       <c r="BE34">
-        <v>75.99404318689501</v>
+        <v>102.241250930752</v>
       </c>
       <c r="BF34">
-        <v>201.4814814814815</v>
+        <v>280.7407407407407</v>
       </c>
       <c r="BG34">
         <v>0</v>
@@ -12601,13 +12601,13 @@
         <v>0</v>
       </c>
       <c r="CP34">
-        <v>0.6986050130606347</v>
+        <v>0.9984438392708275</v>
       </c>
       <c r="CQ34">
-        <v>0.5314268754328323</v>
+        <v>0.7149737827325318</v>
       </c>
       <c r="CR34">
-        <v>0.2798353909465021</v>
+        <v>0.389917695473251</v>
       </c>
       <c r="CS34">
         <v>0</v>
@@ -12634,7 +12634,7 @@
         <v>0</v>
       </c>
       <c r="DA34">
-        <v>0.6616806205838531</v>
+        <v>0.8452458910910193</v>
       </c>
     </row>
     <row r="35" spans="1:105">
@@ -12690,13 +12690,13 @@
         <v>0</v>
       </c>
       <c r="R35">
-        <v>1789</v>
+        <v>2503</v>
       </c>
       <c r="S35">
-        <v>2321</v>
+        <v>3093</v>
       </c>
       <c r="T35">
-        <v>1951</v>
+        <v>2593</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -12804,13 +12804,13 @@
         <v>0</v>
       </c>
       <c r="BD35">
-        <v>73.97656788421779</v>
+        <v>103.5010337698139</v>
       </c>
       <c r="BE35">
-        <v>71.70957775489188</v>
+        <v>95.5612770339856</v>
       </c>
       <c r="BF35">
-        <v>292.65</v>
+        <v>388.95</v>
       </c>
       <c r="BG35">
         <v>0</v>
@@ -12918,13 +12918,13 @@
         <v>0</v>
       </c>
       <c r="CP35">
-        <v>0.6489172621422613</v>
+        <v>0.9079038049983676</v>
       </c>
       <c r="CQ35">
-        <v>0.5014655787055377</v>
+        <v>0.6682606785593399</v>
       </c>
       <c r="CR35">
-        <v>0.4064583333333334</v>
+        <v>0.5402083333333334</v>
       </c>
       <c r="CS35">
         <v>0</v>
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="DA35">
-        <v>0.6229509769346228</v>
+        <v>0.7699465970751953</v>
       </c>
     </row>
     <row r="36" spans="1:105">
@@ -13324,10 +13324,10 @@
         <v>0</v>
       </c>
       <c r="R37">
-        <v>1459</v>
+        <v>1995</v>
       </c>
       <c r="S37">
-        <v>2128</v>
+        <v>2777</v>
       </c>
       <c r="T37">
         <v>0</v>
@@ -13438,10 +13438,10 @@
         <v>0</v>
       </c>
       <c r="BD37">
-        <v>63.89781021897811</v>
+        <v>87.37226277372264</v>
       </c>
       <c r="BE37">
-        <v>67.23538704581357</v>
+        <v>87.74091627172194</v>
       </c>
       <c r="BF37">
         <v>0</v>
@@ -13552,10 +13552,10 @@
         <v>0</v>
       </c>
       <c r="CP37">
-        <v>0.5605071071840185</v>
+        <v>0.7664233576642336</v>
       </c>
       <c r="CQ37">
-        <v>0.4701775317889061</v>
+        <v>0.6135728410609926</v>
       </c>
       <c r="CR37">
         <v>0</v>
@@ -13585,7 +13585,7 @@
         <v>0</v>
       </c>
       <c r="DA37">
-        <v>0.5270211889953961</v>
+        <v>0.6573486350380823</v>
       </c>
     </row>
     <row r="38" spans="1:105">
@@ -13641,13 +13641,13 @@
         <v>0</v>
       </c>
       <c r="R38">
-        <v>4459</v>
+        <v>5613</v>
       </c>
       <c r="S38">
-        <v>4705</v>
+        <v>6134</v>
       </c>
       <c r="T38">
-        <v>948</v>
+        <v>1286</v>
       </c>
       <c r="U38">
         <v>0</v>
@@ -13755,13 +13755,13 @@
         <v>0</v>
       </c>
       <c r="BD38">
-        <v>126.3769485120454</v>
+        <v>159.0836088804913</v>
       </c>
       <c r="BE38">
-        <v>89.19431279620855</v>
+        <v>116.2843601895735</v>
       </c>
       <c r="BF38">
-        <v>181.1464968152866</v>
+        <v>245.7324840764332</v>
       </c>
       <c r="BG38">
         <v>0</v>
@@ -13869,13 +13869,13 @@
         <v>0</v>
       </c>
       <c r="CP38">
-        <v>1.108569723789872</v>
+        <v>1.395470253337643</v>
       </c>
       <c r="CQ38">
-        <v>0.6237364531203395</v>
+        <v>0.8131773439830313</v>
       </c>
       <c r="CR38">
-        <v>0.2515923566878981</v>
+        <v>0.3412951167728239</v>
       </c>
       <c r="CS38">
         <v>0</v>
@@ -13902,7 +13902,7 @@
         <v>0</v>
       </c>
       <c r="DA38">
-        <v>0.8878193707845521</v>
+        <v>1.064239240417421</v>
       </c>
     </row>
     <row r="39" spans="1:105">
@@ -14909,13 +14909,13 @@
         <v>0</v>
       </c>
       <c r="R42">
-        <v>949</v>
+        <v>1090</v>
       </c>
       <c r="S42">
-        <v>1111</v>
+        <v>1486</v>
       </c>
       <c r="T42">
-        <v>294</v>
+        <v>403</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -15023,13 +15023,13 @@
         <v>0</v>
       </c>
       <c r="BD42">
-        <v>105.2495378927911</v>
+        <v>120.8872458410351</v>
       </c>
       <c r="BE42">
-        <v>53.2853717026379</v>
+        <v>71.27098321342926</v>
       </c>
       <c r="BF42">
-        <v>180</v>
+        <v>246.734693877551</v>
       </c>
       <c r="BG42">
         <v>0</v>
@@ -15137,13 +15137,13 @@
         <v>0</v>
       </c>
       <c r="CP42">
-        <v>0.9232415604630801</v>
+        <v>1.060414437202063</v>
       </c>
       <c r="CQ42">
-        <v>0.3726249769415237</v>
+        <v>0.4983984840099948</v>
       </c>
       <c r="CR42">
-        <v>0.25</v>
+        <v>0.342687074829932</v>
       </c>
       <c r="CS42">
         <v>0</v>
@@ -15170,7 +15170,7 @@
         <v>0</v>
       </c>
       <c r="DA42">
-        <v>0.5238770001927896</v>
+        <v>0.6511979086540489</v>
       </c>
     </row>
     <row r="43" spans="1:105">
@@ -15226,13 +15226,13 @@
         <v>0</v>
       </c>
       <c r="R43">
-        <v>1403</v>
+        <v>1991</v>
       </c>
       <c r="S43">
-        <v>1494</v>
+        <v>2097</v>
       </c>
       <c r="T43">
-        <v>1454</v>
+        <v>1939</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -15340,13 +15340,13 @@
         <v>0</v>
       </c>
       <c r="BD43">
-        <v>80.32442748091603</v>
+        <v>113.9885496183206</v>
       </c>
       <c r="BE43">
-        <v>68.27113480578828</v>
+        <v>95.82635186595584</v>
       </c>
       <c r="BF43">
-        <v>199.1780821917808</v>
+        <v>265.6164383561644</v>
       </c>
       <c r="BG43">
         <v>0</v>
@@ -15454,13 +15454,13 @@
         <v>0</v>
       </c>
       <c r="CP43">
-        <v>0.7046002410606669</v>
+        <v>0.9998995580554439</v>
       </c>
       <c r="CQ43">
-        <v>0.4774205231174006</v>
+        <v>0.6701143487129779</v>
       </c>
       <c r="CR43">
-        <v>0.2766362252663622</v>
+        <v>0.3689117199391172</v>
       </c>
       <c r="CS43">
         <v>0</v>
@@ -15487,7 +15487,7 @@
         <v>0</v>
       </c>
       <c r="DA43">
-        <v>0.550819321681653</v>
+        <v>0.7465652125531421</v>
       </c>
     </row>
     <row r="44" spans="1:105">
@@ -15543,13 +15543,13 @@
         <v>0</v>
       </c>
       <c r="R44">
-        <v>474</v>
+        <v>666</v>
       </c>
       <c r="S44">
-        <v>862</v>
+        <v>1134</v>
       </c>
       <c r="T44">
-        <v>1220</v>
+        <v>1629</v>
       </c>
       <c r="U44">
         <v>0</v>
@@ -15657,13 +15657,13 @@
         <v>0</v>
       </c>
       <c r="BD44">
-        <v>65.52995391705068</v>
+        <v>92.07373271889399</v>
       </c>
       <c r="BE44">
-        <v>59.10857142857142</v>
+        <v>77.75999999999999</v>
       </c>
       <c r="BF44">
-        <v>295.1612903225807</v>
+        <v>394.1129032258065</v>
       </c>
       <c r="BG44">
         <v>0</v>
@@ -15771,13 +15771,13 @@
         <v>0</v>
       </c>
       <c r="CP44">
-        <v>0.5748241571671112</v>
+        <v>0.8076643220955614</v>
       </c>
       <c r="CQ44">
-        <v>0.4133466533466533</v>
+        <v>0.5437762237762237</v>
       </c>
       <c r="CR44">
-        <v>0.4099462365591398</v>
+        <v>0.5473790322580646</v>
       </c>
       <c r="CS44">
         <v>0</v>
@@ -15804,7 +15804,7 @@
         <v>0</v>
       </c>
       <c r="DA44">
-        <v>0.4023509011246921</v>
+        <v>0.5250795269435768</v>
       </c>
     </row>
     <row r="45" spans="1:105">
@@ -15860,10 +15860,10 @@
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1076</v>
+        <v>1447</v>
       </c>
       <c r="S45">
-        <v>1418</v>
+        <v>1825</v>
       </c>
       <c r="T45">
         <v>0</v>
@@ -15974,10 +15974,10 @@
         <v>0</v>
       </c>
       <c r="BD45">
-        <v>86.7741935483871</v>
+        <v>116.6935483870968</v>
       </c>
       <c r="BE45">
-        <v>71.79746835443038</v>
+        <v>92.40506329113924</v>
       </c>
       <c r="BF45">
         <v>0</v>
@@ -16088,10 +16088,10 @@
         <v>0</v>
       </c>
       <c r="CP45">
-        <v>0.7611771363893606</v>
+        <v>1.023627617430674</v>
       </c>
       <c r="CQ45">
-        <v>0.5020801982827299</v>
+        <v>0.6461892537841905</v>
       </c>
       <c r="CR45">
         <v>0</v>
@@ -16121,7 +16121,7 @@
         <v>0</v>
       </c>
       <c r="DA45">
-        <v>0.6020118322647583</v>
+        <v>0.7917642369635491</v>
       </c>
     </row>
     <row r="46" spans="1:105">
@@ -16177,13 +16177,13 @@
         <v>0</v>
       </c>
       <c r="R46">
-        <v>1222</v>
+        <v>1503</v>
       </c>
       <c r="S46">
-        <v>1926</v>
+        <v>2520</v>
       </c>
       <c r="T46">
-        <v>911</v>
+        <v>1203</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -16291,13 +16291,13 @@
         <v>0</v>
       </c>
       <c r="BD46">
-        <v>89.19708029197082</v>
+        <v>109.7080291970803</v>
       </c>
       <c r="BE46">
-        <v>68.13679245283019</v>
+        <v>89.15094339622642</v>
       </c>
       <c r="BF46">
-        <v>333.2926829268293</v>
+        <v>440.1219512195122</v>
       </c>
       <c r="BG46">
         <v>0</v>
@@ -16405,13 +16405,13 @@
         <v>0</v>
       </c>
       <c r="CP46">
-        <v>0.782430528876937</v>
+        <v>0.962351133307722</v>
       </c>
       <c r="CQ46">
-        <v>0.4764810661037077</v>
+        <v>0.623433170602982</v>
       </c>
       <c r="CR46">
-        <v>0.4629065040650407</v>
+        <v>0.6112804878048781</v>
       </c>
       <c r="CS46">
         <v>0</v>
@@ -16438,7 +16438,7 @@
         <v>0</v>
       </c>
       <c r="DA46">
-        <v>0.7060918780594168</v>
+        <v>0.8079427334016613</v>
       </c>
     </row>
     <row r="47" spans="1:105">
@@ -16494,13 +16494,13 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>2367</v>
+        <v>2778</v>
       </c>
       <c r="S47">
-        <v>1261</v>
+        <v>1557</v>
       </c>
       <c r="T47">
-        <v>462</v>
+        <v>632</v>
       </c>
       <c r="U47">
         <v>0</v>
@@ -16608,13 +16608,13 @@
         <v>0</v>
       </c>
       <c r="BD47">
-        <v>70.34175334323925</v>
+        <v>82.55572065378902</v>
       </c>
       <c r="BE47">
-        <v>57.79984721161193</v>
+        <v>71.36745607333845</v>
       </c>
       <c r="BF47">
-        <v>229.0909090909091</v>
+        <v>313.3884297520661</v>
       </c>
       <c r="BG47">
         <v>0</v>
@@ -16722,13 +16722,13 @@
         <v>0</v>
       </c>
       <c r="CP47">
-        <v>0.6170329240635022</v>
+        <v>0.7241729881911317</v>
       </c>
       <c r="CQ47">
-        <v>0.4041947357455379</v>
+        <v>0.4990731193939751</v>
       </c>
       <c r="CR47">
-        <v>0.3181818181818182</v>
+        <v>0.4352617079889808</v>
       </c>
       <c r="CS47">
         <v>0</v>
@@ -16755,7 +16755,7 @@
         <v>0</v>
       </c>
       <c r="DA47">
-        <v>0.588090121212832</v>
+        <v>0.6743655433330351</v>
       </c>
     </row>
     <row r="48" spans="1:105">
@@ -16811,13 +16811,13 @@
         <v>0</v>
       </c>
       <c r="R48">
-        <v>1202</v>
+        <v>1562</v>
       </c>
       <c r="S48">
-        <v>557</v>
+        <v>770</v>
       </c>
       <c r="T48">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="U48">
         <v>0</v>
@@ -16925,13 +16925,13 @@
         <v>0</v>
       </c>
       <c r="BD48">
-        <v>73.44195519348268</v>
+        <v>95.43788187372708</v>
       </c>
       <c r="BE48">
-        <v>48.71720116618076</v>
+        <v>67.3469387755102</v>
       </c>
       <c r="BF48">
-        <v>79.78723404255319</v>
+        <v>112.9787234042553</v>
       </c>
       <c r="BG48">
         <v>0</v>
@@ -17039,13 +17039,13 @@
         <v>0</v>
       </c>
       <c r="CP48">
-        <v>0.644227677135813</v>
+        <v>0.8371744024011147</v>
       </c>
       <c r="CQ48">
-        <v>0.3406797284348305</v>
+        <v>0.4709576138147566</v>
       </c>
       <c r="CR48">
-        <v>0.1108156028368794</v>
+        <v>0.1569148936170213</v>
       </c>
       <c r="CS48">
         <v>0</v>
@@ -17072,7 +17072,7 @@
         <v>0</v>
       </c>
       <c r="DA48">
-        <v>0.5131375313449702</v>
+        <v>0.6410985105200668</v>
       </c>
     </row>
     <row r="49" spans="1:105">
@@ -17128,13 +17128,13 @@
         <v>0</v>
       </c>
       <c r="R49">
-        <v>737</v>
+        <v>1035</v>
       </c>
       <c r="S49">
-        <v>713</v>
+        <v>899</v>
       </c>
       <c r="T49">
-        <v>668</v>
+        <v>902</v>
       </c>
       <c r="U49">
         <v>0</v>
@@ -17242,13 +17242,13 @@
         <v>0</v>
       </c>
       <c r="BD49">
-        <v>62.9018492176387</v>
+        <v>88.33570412517783</v>
       </c>
       <c r="BE49">
-        <v>44.51612903225806</v>
+        <v>56.12903225806451</v>
       </c>
       <c r="BF49">
-        <v>141.6254416961131</v>
+        <v>191.2367491166078</v>
       </c>
       <c r="BG49">
         <v>0</v>
@@ -17356,13 +17356,13 @@
         <v>0</v>
       </c>
       <c r="CP49">
-        <v>0.5517706071722693</v>
+        <v>0.7748745975892792</v>
       </c>
       <c r="CQ49">
-        <v>0.3113016016241822</v>
+        <v>0.3925107150913602</v>
       </c>
       <c r="CR49">
-        <v>0.1967020023557126</v>
+        <v>0.2656065959952886</v>
       </c>
       <c r="CS49">
         <v>0</v>
@@ -17389,7 +17389,7 @@
         <v>0</v>
       </c>
       <c r="DA49">
-        <v>0.3830870466288408</v>
+        <v>0.4898365486452554</v>
       </c>
     </row>
     <row r="50" spans="1:105">
@@ -17445,10 +17445,10 @@
         <v>0</v>
       </c>
       <c r="R50">
-        <v>1424</v>
+        <v>1905</v>
       </c>
       <c r="S50">
-        <v>1599</v>
+        <v>1995</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -17559,10 +17559,10 @@
         <v>0</v>
       </c>
       <c r="BD50">
-        <v>84.5940594059406</v>
+        <v>113.1683168316832</v>
       </c>
       <c r="BE50">
-        <v>77.9366368805849</v>
+        <v>97.23801787164906</v>
       </c>
       <c r="BF50">
         <v>0</v>
@@ -17673,10 +17673,10 @@
         <v>0</v>
       </c>
       <c r="CP50">
-        <v>0.7420531526836894</v>
+        <v>0.9927045336112559</v>
       </c>
       <c r="CQ50">
-        <v>0.5450114467173769</v>
+        <v>0.6799861389625809</v>
       </c>
       <c r="CR50">
         <v>0</v>
@@ -17706,7 +17706,7 @@
         <v>0</v>
       </c>
       <c r="DA50">
-        <v>0.6338164993840326</v>
+        <v>0.8209257099555132</v>
       </c>
     </row>
     <row r="51" spans="1:105">
@@ -17762,13 +17762,13 @@
         <v>0</v>
       </c>
       <c r="R51">
-        <v>1431</v>
+        <v>1993</v>
       </c>
       <c r="S51">
-        <v>1874</v>
+        <v>2544</v>
       </c>
       <c r="T51">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="U51">
         <v>0</v>
@@ -17876,13 +17876,13 @@
         <v>0</v>
       </c>
       <c r="BD51">
-        <v>66.97347893915756</v>
+        <v>93.27613104524181</v>
       </c>
       <c r="BE51">
-        <v>87.84375</v>
+        <v>119.25</v>
       </c>
       <c r="BF51">
-        <v>190.8196721311475</v>
+        <v>254.7540983606557</v>
       </c>
       <c r="BG51">
         <v>0</v>
@@ -17990,13 +17990,13 @@
         <v>0</v>
       </c>
       <c r="CP51">
-        <v>0.5874866573610312</v>
+        <v>0.8182116758354545</v>
       </c>
       <c r="CQ51">
-        <v>0.614291958041958</v>
+        <v>0.833916083916084</v>
       </c>
       <c r="CR51">
-        <v>0.2650273224043716</v>
+        <v>0.3538251366120219</v>
       </c>
       <c r="CS51">
         <v>0</v>
@@ -18023,7 +18023,7 @@
         <v>0</v>
       </c>
       <c r="DA51">
-        <v>0.6938471622513787</v>
+        <v>0.8526919580696434</v>
       </c>
     </row>
     <row r="52" spans="1:105">
@@ -18079,13 +18079,13 @@
         <v>0</v>
       </c>
       <c r="R52">
-        <v>2134</v>
+        <v>2871</v>
       </c>
       <c r="S52">
-        <v>1598</v>
+        <v>2135</v>
       </c>
       <c r="T52">
-        <v>1476</v>
+        <v>2000</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -18193,13 +18193,13 @@
         <v>0</v>
       </c>
       <c r="BD52">
-        <v>89.78962131837308</v>
+        <v>120.7994389901823</v>
       </c>
       <c r="BE52">
-        <v>71.49888143176733</v>
+        <v>95.52572706935122</v>
       </c>
       <c r="BF52">
-        <v>218.128078817734</v>
+        <v>295.5665024630542</v>
       </c>
       <c r="BG52">
         <v>0</v>
@@ -18307,13 +18307,13 @@
         <v>0</v>
       </c>
       <c r="CP52">
-        <v>0.7876282571787112</v>
+        <v>1.059644201668266</v>
       </c>
       <c r="CQ52">
-        <v>0.4999921778445268</v>
+        <v>0.6680120774080505</v>
       </c>
       <c r="CR52">
-        <v>0.3029556650246305</v>
+        <v>0.4105090311986864</v>
       </c>
       <c r="CS52">
         <v>0</v>
@@ -18340,7 +18340,7 @@
         <v>0</v>
       </c>
       <c r="DA52">
-        <v>0.5887501799809252</v>
+        <v>0.7693594977767616</v>
       </c>
     </row>
     <row r="53" spans="1:105">
@@ -18396,13 +18396,13 @@
         <v>0</v>
       </c>
       <c r="R53">
-        <v>1094</v>
+        <v>1348</v>
       </c>
       <c r="S53">
-        <v>1247</v>
+        <v>1758</v>
       </c>
       <c r="T53">
-        <v>1252</v>
+        <v>1705</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -18510,13 +18510,13 @@
         <v>0</v>
       </c>
       <c r="BD53">
-        <v>72.53038674033149</v>
+        <v>89.37016574585635</v>
       </c>
       <c r="BE53">
-        <v>61.12745098039216</v>
+        <v>86.1764705882353</v>
       </c>
       <c r="BF53">
-        <v>32.37931034482758</v>
+        <v>44.09482758620689</v>
       </c>
       <c r="BG53">
         <v>0</v>
@@ -18624,13 +18624,13 @@
         <v>0</v>
       </c>
       <c r="CP53">
-        <v>0.6362314626344868</v>
+        <v>0.7839488223320733</v>
       </c>
       <c r="CQ53">
-        <v>0.4274646921705745</v>
+        <v>0.602632661456191</v>
       </c>
       <c r="CR53">
-        <v>0.04497126436781608</v>
+        <v>0.06124281609195401</v>
       </c>
       <c r="CS53">
         <v>0</v>
@@ -18657,7 +18657,7 @@
         <v>0</v>
       </c>
       <c r="DA53">
-        <v>0.3050348597829901</v>
+        <v>0.3789222218917435</v>
       </c>
     </row>
     <row r="54" spans="1:105">
@@ -18713,13 +18713,13 @@
         <v>0</v>
       </c>
       <c r="R54">
-        <v>3355</v>
+        <v>4450</v>
       </c>
       <c r="S54">
-        <v>7356</v>
+        <v>9536</v>
       </c>
       <c r="T54">
-        <v>4888</v>
+        <v>6505</v>
       </c>
       <c r="U54">
         <v>0</v>
@@ -18827,13 +18827,13 @@
         <v>0</v>
       </c>
       <c r="BD54">
-        <v>115.8227848101266</v>
+        <v>153.6248561565017</v>
       </c>
       <c r="BE54">
-        <v>90.59113300492609</v>
+        <v>117.4384236453202</v>
       </c>
       <c r="BF54">
-        <v>290.6640237859266</v>
+        <v>386.818632309217</v>
       </c>
       <c r="BG54">
         <v>0</v>
@@ -18941,13 +18941,13 @@
         <v>0</v>
       </c>
       <c r="CP54">
-        <v>1.015989340439707</v>
+        <v>1.347586457513173</v>
       </c>
       <c r="CQ54">
-        <v>0.6335044266078748</v>
+        <v>0.8212477177994417</v>
       </c>
       <c r="CR54">
-        <v>0.4037000330360092</v>
+        <v>0.537248100429468</v>
       </c>
       <c r="CS54">
         <v>0</v>
@@ -18974,7 +18974,7 @@
         <v>0</v>
       </c>
       <c r="DA54">
-        <v>0.7045196591024065</v>
+        <v>0.9040717769567086</v>
       </c>
     </row>
     <row r="55" spans="1:105">
@@ -19030,13 +19030,13 @@
         <v>0</v>
       </c>
       <c r="R55">
-        <v>2911</v>
+        <v>3881</v>
       </c>
       <c r="S55">
-        <v>3329</v>
+        <v>4453</v>
       </c>
       <c r="T55">
-        <v>2595</v>
+        <v>3510</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -19144,13 +19144,13 @@
         <v>0</v>
       </c>
       <c r="BD55">
-        <v>76.00522193211489</v>
+        <v>101.3315926892951</v>
       </c>
       <c r="BE55">
-        <v>46.16131268777443</v>
+        <v>61.74716893921885</v>
       </c>
       <c r="BF55">
-        <v>210.1214574898785</v>
+        <v>284.2105263157895</v>
       </c>
       <c r="BG55">
         <v>0</v>
@@ -19258,13 +19258,13 @@
         <v>0</v>
       </c>
       <c r="CP55">
-        <v>0.6667124730887272</v>
+        <v>0.8888736200815355</v>
       </c>
       <c r="CQ55">
-        <v>0.3228063824319891</v>
+        <v>0.4317983841903416</v>
       </c>
       <c r="CR55">
-        <v>0.2918353576248313</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="CS55">
         <v>0</v>
@@ -19291,7 +19291,7 @@
         <v>0</v>
       </c>
       <c r="DA55">
-        <v>0.446354487540141</v>
+        <v>0.5771807801727572</v>
       </c>
     </row>
     <row r="56" spans="1:105">
@@ -19981,13 +19981,13 @@
         <v>0</v>
       </c>
       <c r="R58">
-        <v>4097</v>
+        <v>5123</v>
       </c>
       <c r="S58">
-        <v>1667</v>
+        <v>2149</v>
       </c>
       <c r="T58">
-        <v>3981</v>
+        <v>5247</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -20095,13 +20095,13 @@
         <v>0</v>
       </c>
       <c r="BD58">
-        <v>78.66240000000002</v>
+        <v>98.36160000000002</v>
       </c>
       <c r="BE58">
-        <v>40.64201544087769</v>
+        <v>52.39333604225924</v>
       </c>
       <c r="BF58">
-        <v>248.2952182952183</v>
+        <v>327.2557172557172</v>
       </c>
       <c r="BG58">
         <v>0</v>
@@ -20209,13 +20209,13 @@
         <v>0</v>
       </c>
       <c r="CP58">
-        <v>0.6900210526315791</v>
+        <v>0.8628210526315792</v>
       </c>
       <c r="CQ58">
-        <v>0.2842098981879559</v>
+        <v>0.3663869653304842</v>
       </c>
       <c r="CR58">
-        <v>0.3448544698544698</v>
+        <v>0.4545218295218295</v>
       </c>
       <c r="CS58">
         <v>0</v>
@@ -20242,7 +20242,7 @@
         <v>0</v>
       </c>
       <c r="DA58">
-        <v>0.5037943292607303</v>
+        <v>0.6230764120295164</v>
       </c>
     </row>
     <row r="59" spans="1:105">
@@ -20615,13 +20615,13 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <v>3648</v>
+        <v>5447</v>
       </c>
       <c r="S60">
-        <v>3805</v>
+        <v>5046</v>
       </c>
       <c r="T60">
-        <v>2118</v>
+        <v>2813</v>
       </c>
       <c r="U60">
         <v>0</v>
@@ -20729,13 +20729,13 @@
         <v>0</v>
       </c>
       <c r="BD60">
-        <v>78.8472622478386</v>
+        <v>117.7305475504322</v>
       </c>
       <c r="BE60">
-        <v>46.90774604479144</v>
+        <v>62.20669817135812</v>
       </c>
       <c r="BF60">
-        <v>101.2589641434263</v>
+        <v>134.4860557768924</v>
       </c>
       <c r="BG60">
         <v>0</v>
@@ -20843,13 +20843,13 @@
         <v>0</v>
       </c>
       <c r="CP60">
-        <v>0.6916426512968298</v>
+        <v>1.032724101319581</v>
       </c>
       <c r="CQ60">
-        <v>0.3280261961174227</v>
+        <v>0.4350118753241827</v>
       </c>
       <c r="CR60">
-        <v>0.1406374501992032</v>
+        <v>0.1867861885790173</v>
       </c>
       <c r="CS60">
         <v>0</v>
@@ -20876,7 +20876,7 @@
         <v>0</v>
       </c>
       <c r="DA60">
-        <v>0.4125420233259763</v>
+        <v>0.5794594182957898</v>
       </c>
     </row>
     <row r="61" spans="1:105">
@@ -20932,13 +20932,13 @@
         <v>0</v>
       </c>
       <c r="R61">
-        <v>5781</v>
+        <v>7131</v>
       </c>
       <c r="S61">
-        <v>5245</v>
+        <v>7027</v>
       </c>
       <c r="T61">
-        <v>1366</v>
+        <v>1896</v>
       </c>
       <c r="U61">
         <v>0</v>
@@ -21046,13 +21046,13 @@
         <v>0</v>
       </c>
       <c r="BD61">
-        <v>98.90504704875963</v>
+        <v>122.0017108639863</v>
       </c>
       <c r="BE61">
-        <v>78.57677902621722</v>
+        <v>105.2734082397004</v>
       </c>
       <c r="BF61">
-        <v>204.9</v>
+        <v>284.4</v>
       </c>
       <c r="BG61">
         <v>0</v>
@@ -21160,13 +21160,13 @@
         <v>0</v>
       </c>
       <c r="CP61">
-        <v>0.8675881320066634</v>
+        <v>1.070190446175319</v>
       </c>
       <c r="CQ61">
-        <v>0.5494879652183022</v>
+        <v>0.7361776799979047</v>
       </c>
       <c r="CR61">
-        <v>0.2845833333333334</v>
+        <v>0.3950000000000001</v>
       </c>
       <c r="CS61">
         <v>0</v>
@@ -21193,7 +21193,7 @@
         <v>0</v>
       </c>
       <c r="DA61">
-        <v>0.6640175979211593</v>
+        <v>0.8416885168128869</v>
       </c>
     </row>
     <row r="62" spans="1:105">
@@ -21249,10 +21249,10 @@
         <v>0</v>
       </c>
       <c r="R62">
-        <v>1379</v>
+        <v>1925</v>
       </c>
       <c r="S62">
-        <v>578</v>
+        <v>694</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -21363,10 +21363,10 @@
         <v>0</v>
       </c>
       <c r="BD62">
-        <v>60.13081395348837</v>
+        <v>83.93895348837209</v>
       </c>
       <c r="BE62">
-        <v>32.59398496240601</v>
+        <v>39.13533834586466</v>
       </c>
       <c r="BF62">
         <v>0</v>
@@ -21477,10 +21477,10 @@
         <v>0</v>
       </c>
       <c r="CP62">
-        <v>0.5274632802937577</v>
+        <v>0.7363066095471236</v>
       </c>
       <c r="CQ62">
-        <v>0.22792996477207</v>
+        <v>0.2736736947263263</v>
       </c>
       <c r="CR62">
         <v>0</v>
@@ -21510,7 +21510,7 @@
         <v>0</v>
       </c>
       <c r="DA62">
-        <v>0.3968471131974152</v>
+        <v>0.5345683221006776</v>
       </c>
     </row>
     <row r="63" spans="1:105">
@@ -21566,10 +21566,10 @@
         <v>0</v>
       </c>
       <c r="R63">
-        <v>1524</v>
+        <v>2209</v>
       </c>
       <c r="S63">
-        <v>1795</v>
+        <v>2336</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -21680,10 +21680,10 @@
         <v>0</v>
       </c>
       <c r="BD63">
-        <v>98.0064308681672</v>
+        <v>142.0578778135048</v>
       </c>
       <c r="BE63">
-        <v>68.51145038167938</v>
+        <v>89.16030534351144</v>
       </c>
       <c r="BF63">
         <v>0</v>
@@ -21794,10 +21794,10 @@
         <v>0</v>
       </c>
       <c r="CP63">
-        <v>0.8597055339312912</v>
+        <v>1.246121735206182</v>
       </c>
       <c r="CQ63">
-        <v>0.4791010516201356</v>
+        <v>0.6234986387658142</v>
       </c>
       <c r="CR63">
         <v>0</v>
@@ -21827,7 +21827,7 @@
         <v>0</v>
       </c>
       <c r="DA63">
-        <v>0.7341539000393026</v>
+        <v>0.9264679173167102</v>
       </c>
     </row>
     <row r="64" spans="1:105">
@@ -21883,10 +21883,10 @@
         <v>0</v>
       </c>
       <c r="R64">
-        <v>855</v>
+        <v>1155</v>
       </c>
       <c r="S64">
-        <v>848</v>
+        <v>1172</v>
       </c>
       <c r="T64">
         <v>0</v>
@@ -21997,10 +21997,10 @@
         <v>0</v>
       </c>
       <c r="BD64">
-        <v>58.03167420814479</v>
+        <v>78.39366515837104</v>
       </c>
       <c r="BE64">
-        <v>47.86453433678268</v>
+        <v>66.15239887111946</v>
       </c>
       <c r="BF64">
         <v>0</v>
@@ -22111,10 +22111,10 @@
         <v>0</v>
       </c>
       <c r="CP64">
-        <v>0.5090497737556561</v>
+        <v>0.687663729459395</v>
       </c>
       <c r="CQ64">
-        <v>0.3347170233341447</v>
+        <v>0.4626041879099263</v>
       </c>
       <c r="CR64">
         <v>0</v>
@@ -22144,7 +22144,7 @@
         <v>0</v>
       </c>
       <c r="DA64">
-        <v>0.4138696434536189</v>
+        <v>0.5647883865384473</v>
       </c>
     </row>
     <row r="65" spans="1:105">
@@ -22200,13 +22200,13 @@
         <v>0</v>
       </c>
       <c r="R65">
-        <v>2187</v>
+        <v>2887</v>
       </c>
       <c r="S65">
-        <v>2019</v>
+        <v>2654</v>
       </c>
       <c r="T65">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c r="U65">
         <v>0</v>
@@ -22314,13 +22314,13 @@
         <v>0</v>
       </c>
       <c r="BD65">
-        <v>88.5425101214575</v>
+        <v>116.8825910931174</v>
       </c>
       <c r="BE65">
-        <v>63.72435560231458</v>
+        <v>83.76643871646503</v>
       </c>
       <c r="BF65">
-        <v>116.3636363636364</v>
+        <v>157.5757575757576</v>
       </c>
       <c r="BG65">
         <v>0</v>
@@ -22428,13 +22428,13 @@
         <v>0</v>
       </c>
       <c r="CP65">
-        <v>0.7766886852759429</v>
+        <v>1.025285886781732</v>
       </c>
       <c r="CQ65">
-        <v>0.4456248643518502</v>
+        <v>0.5857792917235317</v>
       </c>
       <c r="CR65">
-        <v>0.1616161616161616</v>
+        <v>0.2188552188552189</v>
       </c>
       <c r="CS65">
         <v>0</v>
@@ -22461,7 +22461,7 @@
         <v>0</v>
       </c>
       <c r="DA65">
-        <v>0.5807643264454683</v>
+        <v>0.7507991779803267</v>
       </c>
     </row>
     <row r="66" spans="1:105">
@@ -22517,13 +22517,13 @@
         <v>0</v>
       </c>
       <c r="R66">
-        <v>1055</v>
+        <v>1722</v>
       </c>
       <c r="S66">
-        <v>990</v>
+        <v>1306</v>
       </c>
       <c r="T66">
-        <v>1429</v>
+        <v>1900</v>
       </c>
       <c r="U66">
         <v>0</v>
@@ -22631,13 +22631,13 @@
         <v>0</v>
       </c>
       <c r="BD66">
-        <v>64.39471007121058</v>
+        <v>105.1068158697864</v>
       </c>
       <c r="BE66">
-        <v>48.05825242718446</v>
+        <v>63.39805825242718</v>
       </c>
       <c r="BF66">
-        <v>132.1109399075501</v>
+        <v>175.6548536209553</v>
       </c>
       <c r="BG66">
         <v>0</v>
@@ -22745,13 +22745,13 @@
         <v>0</v>
       </c>
       <c r="CP66">
-        <v>0.5648658778176366</v>
+        <v>0.921989612892863</v>
       </c>
       <c r="CQ66">
-        <v>0.3360716952949963</v>
+        <v>0.443343064702288</v>
       </c>
       <c r="CR66">
-        <v>0.183487416538264</v>
+        <v>0.2439650744735491</v>
       </c>
       <c r="CS66">
         <v>0</v>
@@ -22778,7 +22778,7 @@
         <v>0</v>
       </c>
       <c r="DA66">
-        <v>0.5104276261572913</v>
+        <v>0.6461727051205208</v>
       </c>
     </row>
     <row r="67" spans="1:105">
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="R67">
-        <v>1148</v>
+        <v>1285</v>
       </c>
       <c r="S67">
-        <v>1135</v>
+        <v>1553</v>
       </c>
       <c r="T67">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="U67">
         <v>0</v>
@@ -22948,13 +22948,13 @@
         <v>0</v>
       </c>
       <c r="BD67">
-        <v>97.84090909090908</v>
+        <v>109.5170454545454</v>
       </c>
       <c r="BE67">
-        <v>48.78223495702006</v>
+        <v>66.74785100286533</v>
       </c>
       <c r="BF67">
-        <v>97.81512605042016</v>
+        <v>135.1260504201681</v>
       </c>
       <c r="BG67">
         <v>0</v>
@@ -23062,13 +23062,13 @@
         <v>0</v>
       </c>
       <c r="CP67">
-        <v>0.8582535885167463</v>
+        <v>0.960675837320574</v>
       </c>
       <c r="CQ67">
-        <v>0.3411345101889515</v>
+        <v>0.4667681888312261</v>
       </c>
       <c r="CR67">
-        <v>0.1358543417366947</v>
+        <v>0.1876750700280112</v>
       </c>
       <c r="CS67">
         <v>0</v>
@@ -23095,7 +23095,7 @@
         <v>0</v>
       </c>
       <c r="DA67">
-        <v>0.4941870073033945</v>
+        <v>0.6084982038825639</v>
       </c>
     </row>
     <row r="68" spans="1:105">
@@ -23151,13 +23151,13 @@
         <v>0</v>
       </c>
       <c r="R68">
-        <v>143</v>
+        <v>248</v>
       </c>
       <c r="S68">
-        <v>1420</v>
+        <v>1928</v>
       </c>
       <c r="T68">
-        <v>512</v>
+        <v>673</v>
       </c>
       <c r="U68">
         <v>0</v>
@@ -23265,13 +23265,13 @@
         <v>0</v>
       </c>
       <c r="BD68">
-        <v>54.64968152866241</v>
+        <v>94.77707006369425</v>
       </c>
       <c r="BE68">
-        <v>50.56379821958458</v>
+        <v>68.65281899109793</v>
       </c>
       <c r="BF68">
-        <v>256</v>
+        <v>336.5</v>
       </c>
       <c r="BG68">
         <v>0</v>
@@ -23379,13 +23379,13 @@
         <v>0</v>
       </c>
       <c r="CP68">
-        <v>0.4793831713040563</v>
+        <v>0.8313778075762653</v>
       </c>
       <c r="CQ68">
-        <v>0.3535929945425495</v>
+        <v>0.4800896432943911</v>
       </c>
       <c r="CR68">
-        <v>0.3555555555555556</v>
+        <v>0.4673611111111111</v>
       </c>
       <c r="CS68">
         <v>0</v>
@@ -23412,7 +23412,7 @@
         <v>0</v>
       </c>
       <c r="DA68">
-        <v>0.3637788075257897</v>
+        <v>0.5074213547777044</v>
       </c>
     </row>
     <row r="69" spans="1:105">
@@ -23468,13 +23468,13 @@
         <v>0</v>
       </c>
       <c r="R69">
-        <v>1004</v>
+        <v>1491</v>
       </c>
       <c r="S69">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="T69">
-        <v>532</v>
+        <v>727</v>
       </c>
       <c r="U69">
         <v>0</v>
@@ -23582,13 +23582,13 @@
         <v>0</v>
       </c>
       <c r="BD69">
-        <v>47.7716098334655</v>
+        <v>70.94369547977794</v>
       </c>
       <c r="BE69">
-        <v>30</v>
+        <v>39.17647058823529</v>
       </c>
       <c r="BF69">
-        <v>121.8320610687023</v>
+        <v>166.4885496183206</v>
       </c>
       <c r="BG69">
         <v>0</v>
@@ -23696,13 +23696,13 @@
         <v>0</v>
       </c>
       <c r="CP69">
-        <v>0.4190492090654868</v>
+        <v>0.6223131182436662</v>
       </c>
       <c r="CQ69">
-        <v>0.2097902097902098</v>
+        <v>0.2739613327848622</v>
       </c>
       <c r="CR69">
-        <v>0.1692111959287532</v>
+        <v>0.231234096692112</v>
       </c>
       <c r="CS69">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         <v>0</v>
       </c>
       <c r="DA69">
-        <v>0.3774040591736819</v>
+        <v>0.5052682361618529</v>
       </c>
     </row>
     <row r="70" spans="1:105">
@@ -23785,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="R70">
-        <v>819</v>
+        <v>1218</v>
       </c>
       <c r="S70">
-        <v>1090</v>
+        <v>1428</v>
       </c>
       <c r="T70">
-        <v>447</v>
+        <v>605</v>
       </c>
       <c r="U70">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="BD70">
-        <v>61.425</v>
+        <v>91.35000000000001</v>
       </c>
       <c r="BE70">
-        <v>52.19473264166002</v>
+        <v>68.37988826815642</v>
       </c>
       <c r="BF70">
-        <v>121.3574660633484</v>
+        <v>164.2533936651584</v>
       </c>
       <c r="BG70">
         <v>0</v>
@@ -24013,13 +24013,13 @@
         <v>0</v>
       </c>
       <c r="CP70">
-        <v>0.5388157894736842</v>
+        <v>0.8013157894736843</v>
       </c>
       <c r="CQ70">
-        <v>0.3649981303612589</v>
+        <v>0.4781810368402547</v>
       </c>
       <c r="CR70">
-        <v>0.168552036199095</v>
+        <v>0.2281297134238311</v>
       </c>
       <c r="CS70">
         <v>0</v>
@@ -24046,7 +24046,7 @@
         <v>0</v>
       </c>
       <c r="DA70">
-        <v>0.4740018868527094</v>
+        <v>0.5961929978285542</v>
       </c>
     </row>
     <row r="71" spans="1:105">
@@ -24102,13 +24102,13 @@
         <v>0</v>
       </c>
       <c r="R71">
-        <v>1786</v>
+        <v>2287</v>
       </c>
       <c r="S71">
-        <v>1041</v>
+        <v>1418</v>
       </c>
       <c r="T71">
-        <v>1505</v>
+        <v>1979</v>
       </c>
       <c r="U71">
         <v>0</v>
@@ -24216,13 +24216,13 @@
         <v>0</v>
       </c>
       <c r="BD71">
-        <v>68.78048780487805</v>
+        <v>88.07445442875482</v>
       </c>
       <c r="BE71">
-        <v>44.29787234042553</v>
+        <v>60.3404255319149</v>
       </c>
       <c r="BF71">
-        <v>149.5033112582782</v>
+        <v>196.5894039735099</v>
       </c>
       <c r="BG71">
         <v>0</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="CP71">
-        <v>0.6033376123234917</v>
+        <v>0.7725829335855686</v>
       </c>
       <c r="CQ71">
-        <v>0.3097753310519268</v>
+        <v>0.4219610177056985</v>
       </c>
       <c r="CR71">
-        <v>0.2076434878587197</v>
+        <v>0.2730408388520971</v>
       </c>
       <c r="CS71">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         <v>0</v>
       </c>
       <c r="DA71">
-        <v>0.4249024938453105</v>
+        <v>0.5475084010225982</v>
       </c>
     </row>
     <row r="72" spans="1:105">
@@ -24419,13 +24419,13 @@
         <v>0</v>
       </c>
       <c r="R72">
-        <v>1662</v>
+        <v>2079</v>
       </c>
       <c r="S72">
-        <v>1944</v>
+        <v>2636</v>
       </c>
       <c r="T72">
-        <v>319</v>
+        <v>422</v>
       </c>
       <c r="U72">
         <v>0</v>
@@ -24533,13 +24533,13 @@
         <v>0</v>
       </c>
       <c r="BD72">
-        <v>86.93984306887532</v>
+        <v>108.7532693984307</v>
       </c>
       <c r="BE72">
-        <v>63.84236453201971</v>
+        <v>86.56814449917898</v>
       </c>
       <c r="BF72">
-        <v>122.6923076923077</v>
+        <v>162.3076923076923</v>
       </c>
       <c r="BG72">
         <v>0</v>
@@ -24647,13 +24647,13 @@
         <v>0</v>
       </c>
       <c r="CP72">
-        <v>0.7626302023585554</v>
+        <v>0.9539760473546551</v>
       </c>
       <c r="CQ72">
-        <v>0.4464501016225154</v>
+        <v>0.6053716398543985</v>
       </c>
       <c r="CR72">
-        <v>0.1704059829059829</v>
+        <v>0.2254273504273505</v>
       </c>
       <c r="CS72">
         <v>0</v>
@@ -24680,7 +24680,7 @@
         <v>0</v>
       </c>
       <c r="DA72">
-        <v>0.6179953237033501</v>
+        <v>0.7566808956384784</v>
       </c>
     </row>
     <row r="73" spans="1:105">
@@ -24736,13 +24736,13 @@
         <v>0</v>
       </c>
       <c r="R73">
-        <v>1653</v>
+        <v>2290</v>
       </c>
       <c r="S73">
-        <v>1406</v>
+        <v>1847</v>
       </c>
       <c r="T73">
-        <v>1279</v>
+        <v>1708</v>
       </c>
       <c r="U73">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="BD73">
-        <v>69.79591836734694</v>
+        <v>96.69247009148486</v>
       </c>
       <c r="BE73">
-        <v>44.56418383518224</v>
+        <v>58.54199683042788</v>
       </c>
       <c r="BF73">
-        <v>169.7787610619469</v>
+        <v>226.7256637168142</v>
       </c>
       <c r="BG73">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="CP73">
-        <v>0.6122448979591837</v>
+        <v>0.8481795622060075</v>
       </c>
       <c r="CQ73">
-        <v>0.3116376491970786</v>
+        <v>0.4093845932197754</v>
       </c>
       <c r="CR73">
-        <v>0.2358038348082596</v>
+        <v>0.3148967551622419</v>
       </c>
       <c r="CS73">
         <v>0</v>
@@ -24997,7 +24997,7 @@
         <v>0</v>
       </c>
       <c r="DA73">
-        <v>0.4942433692433692</v>
+        <v>0.6098458896029746</v>
       </c>
     </row>
     <row r="74" spans="1:105">
@@ -25053,7 +25053,7 @@
         <v>0</v>
       </c>
       <c r="R74">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="S74">
         <v>0</v>
@@ -25167,7 +25167,7 @@
         <v>0</v>
       </c>
       <c r="BD74">
-        <v>92.5</v>
+        <v>108.125</v>
       </c>
       <c r="BE74">
         <v>0</v>
@@ -25281,7 +25281,7 @@
         <v>0</v>
       </c>
       <c r="CP74">
-        <v>0.8114035087719298</v>
+        <v>0.9484649122807017</v>
       </c>
       <c r="CQ74">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="DA74">
-        <v>0.6322598751967263</v>
+        <v>0.638265304104459</v>
       </c>
     </row>
     <row r="75" spans="1:105">
@@ -25370,10 +25370,10 @@
         <v>0</v>
       </c>
       <c r="R75">
-        <v>2022</v>
+        <v>2611</v>
       </c>
       <c r="S75">
-        <v>2187</v>
+        <v>2940</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -25484,10 +25484,10 @@
         <v>0</v>
       </c>
       <c r="BD75">
-        <v>80.13210039630118</v>
+        <v>103.4742404227213</v>
       </c>
       <c r="BE75">
-        <v>62.16011369019423</v>
+        <v>83.56229275225013</v>
       </c>
       <c r="BF75">
         <v>0</v>
@@ -25598,10 +25598,10 @@
         <v>0</v>
       </c>
       <c r="CP75">
-        <v>0.702913161371063</v>
+        <v>0.9076687756379058</v>
       </c>
       <c r="CQ75">
-        <v>0.434686109721638</v>
+        <v>0.5843516975681827</v>
       </c>
       <c r="CR75">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="DA75">
-        <v>0.6906169389235537</v>
+        <v>0.8196775690151117</v>
       </c>
     </row>
     <row r="76" spans="1:105">
@@ -25687,13 +25687,13 @@
         <v>0</v>
       </c>
       <c r="R76">
-        <v>1344</v>
+        <v>1602</v>
       </c>
       <c r="S76">
-        <v>1893</v>
+        <v>2521</v>
       </c>
       <c r="T76">
-        <v>913</v>
+        <v>1236</v>
       </c>
       <c r="U76">
         <v>0</v>
@@ -25801,13 +25801,13 @@
         <v>0</v>
       </c>
       <c r="BD76">
-        <v>110.7692307692308</v>
+        <v>132.0329670329671</v>
       </c>
       <c r="BE76">
-        <v>77.63499658236501</v>
+        <v>103.3902939166097</v>
       </c>
       <c r="BF76">
-        <v>195.6428571428571</v>
+        <v>264.8571428571428</v>
       </c>
       <c r="BG76">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="CP76">
-        <v>0.9716599190283403</v>
+        <v>1.158183921341816</v>
       </c>
       <c r="CQ76">
-        <v>0.5429020740025525</v>
+        <v>0.7230090483679</v>
       </c>
       <c r="CR76">
-        <v>0.2717261904761905</v>
+        <v>0.3678571428571428</v>
       </c>
       <c r="CS76">
         <v>0</v>
@@ -25948,7 +25948,7 @@
         <v>0</v>
       </c>
       <c r="DA76">
-        <v>0.6321311174753025</v>
+        <v>0.7749125727005557</v>
       </c>
     </row>
     <row r="77" spans="1:105">
@@ -26004,13 +26004,13 @@
         <v>0</v>
       </c>
       <c r="R77">
-        <v>473</v>
+        <v>664</v>
       </c>
       <c r="S77">
-        <v>396</v>
+        <v>513</v>
       </c>
       <c r="T77">
-        <v>649</v>
+        <v>872</v>
       </c>
       <c r="U77">
         <v>0</v>
@@ -26118,13 +26118,13 @@
         <v>0</v>
       </c>
       <c r="BD77">
-        <v>85.22522522522523</v>
+        <v>119.6396396396396</v>
       </c>
       <c r="BE77">
-        <v>46.22568093385214</v>
+        <v>59.88326848249027</v>
       </c>
       <c r="BF77">
-        <v>327.2268907563025</v>
+        <v>439.6638655462185</v>
       </c>
       <c r="BG77">
         <v>0</v>
@@ -26232,13 +26232,13 @@
         <v>0</v>
       </c>
       <c r="CP77">
-        <v>0.747589694958116</v>
+        <v>1.049470523154734</v>
       </c>
       <c r="CQ77">
-        <v>0.3232565100269381</v>
+        <v>0.4187641152621697</v>
       </c>
       <c r="CR77">
-        <v>0.4544817927170868</v>
+        <v>0.6106442577030812</v>
       </c>
       <c r="CS77">
         <v>0</v>
@@ -26265,7 +26265,7 @@
         <v>0</v>
       </c>
       <c r="DA77">
-        <v>0.6621071617488459</v>
+        <v>0.7562844059894485</v>
       </c>
     </row>
     <row r="78" spans="1:105">
@@ -26321,10 +26321,10 @@
         <v>0</v>
       </c>
       <c r="R78">
-        <v>1117</v>
+        <v>1554</v>
       </c>
       <c r="S78">
-        <v>1129</v>
+        <v>1476</v>
       </c>
       <c r="T78">
         <v>0</v>
@@ -26435,10 +26435,10 @@
         <v>0</v>
       </c>
       <c r="BD78">
-        <v>92.44137931034483</v>
+        <v>128.6068965517241</v>
       </c>
       <c r="BE78">
-        <v>68.49342770475226</v>
+        <v>89.54499494438826</v>
       </c>
       <c r="BF78">
         <v>0</v>
@@ -26549,10 +26549,10 @@
         <v>0</v>
       </c>
       <c r="CP78">
-        <v>0.8108892921960072</v>
+        <v>1.128130671506352</v>
       </c>
       <c r="CQ78">
-        <v>0.4789750189143515</v>
+        <v>0.626188775834883</v>
       </c>
       <c r="CR78">
         <v>0</v>
@@ -26582,7 +26582,7 @@
         <v>0</v>
       </c>
       <c r="DA78">
-        <v>0.6769637919979001</v>
+        <v>0.8435245040131576</v>
       </c>
     </row>
     <row r="79" spans="1:105">
@@ -26638,13 +26638,13 @@
         <v>0</v>
       </c>
       <c r="R79">
-        <v>1065</v>
+        <v>1539</v>
       </c>
       <c r="S79">
-        <v>686</v>
+        <v>912</v>
       </c>
       <c r="T79">
-        <v>618</v>
+        <v>816</v>
       </c>
       <c r="U79">
         <v>0</v>
@@ -26752,13 +26752,13 @@
         <v>0</v>
       </c>
       <c r="BD79">
-        <v>92.87790697674417</v>
+        <v>134.2151162790697</v>
       </c>
       <c r="BE79">
-        <v>71.70731707317073</v>
+        <v>95.33101045296168</v>
       </c>
       <c r="BF79">
-        <v>89.13461538461539</v>
+        <v>117.6923076923077</v>
       </c>
       <c r="BG79">
         <v>0</v>
@@ -26866,13 +26866,13 @@
         <v>0</v>
       </c>
       <c r="CP79">
-        <v>0.8147184822521418</v>
+        <v>1.177325581395349</v>
       </c>
       <c r="CQ79">
-        <v>0.5014497697424526</v>
+        <v>0.6666504227479838</v>
       </c>
       <c r="CR79">
-        <v>0.1237980769230769</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="CS79">
         <v>0</v>
@@ -26899,7 +26899,7 @@
         <v>0</v>
       </c>
       <c r="DA79">
-        <v>0.7417071439467506</v>
+        <v>0.8793115905660112</v>
       </c>
     </row>
     <row r="80" spans="1:105">
@@ -26955,13 +26955,13 @@
         <v>0</v>
       </c>
       <c r="R80">
-        <v>2009</v>
+        <v>2799</v>
       </c>
       <c r="S80">
-        <v>2394</v>
+        <v>3206</v>
       </c>
       <c r="T80">
-        <v>1240</v>
+        <v>1673</v>
       </c>
       <c r="U80">
         <v>0</v>
@@ -27069,13 +27069,13 @@
         <v>0</v>
       </c>
       <c r="BD80">
-        <v>96.27795527156549</v>
+        <v>134.1373801916933</v>
       </c>
       <c r="BE80">
-        <v>61.83383555746877</v>
+        <v>82.80671545415409</v>
       </c>
       <c r="BF80">
-        <v>170.6422018348624</v>
+        <v>230.2293577981651</v>
       </c>
       <c r="BG80">
         <v>0</v>
@@ -27183,13 +27183,13 @@
         <v>0</v>
       </c>
       <c r="CP80">
-        <v>0.8445434672944341</v>
+        <v>1.176643685892046</v>
       </c>
       <c r="CQ80">
-        <v>0.4324044444578236</v>
+        <v>0.5790679402388398</v>
       </c>
       <c r="CR80">
-        <v>0.2370030581039755</v>
+        <v>0.319762996941896</v>
       </c>
       <c r="CS80">
         <v>0</v>
@@ -27216,7 +27216,7 @@
         <v>0</v>
       </c>
       <c r="DA80">
-        <v>0.5277769355022286</v>
+        <v>0.6865771975172246</v>
       </c>
     </row>
     <row r="81" spans="1:105">
@@ -27272,13 +27272,13 @@
         <v>0</v>
       </c>
       <c r="R81">
-        <v>2804</v>
+        <v>3568</v>
       </c>
       <c r="S81">
-        <v>1985</v>
+        <v>2705</v>
       </c>
       <c r="T81">
-        <v>1369</v>
+        <v>1808</v>
       </c>
       <c r="U81">
         <v>0</v>
@@ -27386,13 +27386,13 @@
         <v>0</v>
       </c>
       <c r="BD81">
-        <v>100.984393757503</v>
+        <v>128.499399759904</v>
       </c>
       <c r="BE81">
-        <v>76.34615384615384</v>
+        <v>104.0384615384615</v>
       </c>
       <c r="BF81">
-        <v>194.1843971631206</v>
+        <v>256.4539007092199</v>
       </c>
       <c r="BG81">
         <v>0</v>
@@ -27500,13 +27500,13 @@
         <v>0</v>
       </c>
       <c r="CP81">
-        <v>0.885828015416693</v>
+        <v>1.12718771719214</v>
       </c>
       <c r="CQ81">
-        <v>0.5338891877353416</v>
+        <v>0.7275416890801505</v>
       </c>
       <c r="CR81">
-        <v>0.2697005516154452</v>
+        <v>0.3561859732072498</v>
       </c>
       <c r="CS81">
         <v>0</v>
@@ -27533,7 +27533,7 @@
         <v>0</v>
       </c>
       <c r="DA81">
-        <v>0.6608683968313285</v>
+        <v>0.8208654807598663</v>
       </c>
     </row>
     <row r="82" spans="1:105">
@@ -27589,13 +27589,13 @@
         <v>0</v>
       </c>
       <c r="R82">
-        <v>1388</v>
+        <v>2200</v>
       </c>
       <c r="S82">
-        <v>1642</v>
+        <v>2180</v>
       </c>
       <c r="T82">
-        <v>328</v>
+        <v>440</v>
       </c>
       <c r="U82">
         <v>0</v>
@@ -27703,13 +27703,13 @@
         <v>0</v>
       </c>
       <c r="BD82">
-        <v>56.08080808080808</v>
+        <v>88.88888888888887</v>
       </c>
       <c r="BE82">
-        <v>71.23644251626898</v>
+        <v>94.57700650759219</v>
       </c>
       <c r="BF82">
-        <v>66.48648648648648</v>
+        <v>89.18918918918918</v>
       </c>
       <c r="BG82">
         <v>0</v>
@@ -27817,13 +27817,13 @@
         <v>0</v>
       </c>
       <c r="CP82">
-        <v>0.4919369129895445</v>
+        <v>0.779727095516569</v>
       </c>
       <c r="CQ82">
-        <v>0.4981569406732096</v>
+        <v>0.6613776678852601</v>
       </c>
       <c r="CR82">
-        <v>0.09234234234234234</v>
+        <v>0.1238738738738739</v>
       </c>
       <c r="CS82">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         <v>0</v>
       </c>
       <c r="DA82">
-        <v>0.4514436777676166</v>
+        <v>0.6305288413578385</v>
       </c>
     </row>
     <row r="83" spans="1:105">
@@ -27906,13 +27906,13 @@
         <v>0</v>
       </c>
       <c r="R83">
-        <v>481</v>
+        <v>568</v>
       </c>
       <c r="S83">
-        <v>835</v>
+        <v>1102</v>
       </c>
       <c r="T83">
-        <v>856</v>
+        <v>1150</v>
       </c>
       <c r="U83">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="BD83">
-        <v>75.35248041775456</v>
+        <v>88.9817232375979</v>
       </c>
       <c r="BE83">
-        <v>53.64025695931478</v>
+        <v>70.79229122055675</v>
       </c>
       <c r="BF83">
-        <v>71.63179916317992</v>
+        <v>96.23430962343097</v>
       </c>
       <c r="BG83">
         <v>0</v>
@@ -28134,13 +28134,13 @@
         <v>0</v>
       </c>
       <c r="CP83">
-        <v>0.6609866703311804</v>
+        <v>0.7805414319087536</v>
       </c>
       <c r="CQ83">
-        <v>0.3751066920231803</v>
+        <v>0.4950509875563409</v>
       </c>
       <c r="CR83">
-        <v>0.099488609948861</v>
+        <v>0.1336587633658763</v>
       </c>
       <c r="CS83">
         <v>0</v>
@@ -28167,7 +28167,7 @@
         <v>0</v>
       </c>
       <c r="DA83">
-        <v>0.3637339567675711</v>
+        <v>0.4361108705080168</v>
       </c>
     </row>
     <row r="84" spans="1:105">
@@ -28223,7 +28223,7 @@
         <v>0</v>
       </c>
       <c r="R84">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S84">
         <v>0</v>
@@ -28337,7 +28337,7 @@
         <v>0</v>
       </c>
       <c r="BD84">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="BE84">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="CP84">
-        <v>0</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="CQ84">
         <v>0</v>
@@ -28484,7 +28484,7 @@
         <v>0</v>
       </c>
       <c r="DA84">
-        <v>0.531479598928279</v>
+        <v>0.5352524719711012</v>
       </c>
     </row>
     <row r="85" spans="1:105">
@@ -28540,13 +28540,13 @@
         <v>0</v>
       </c>
       <c r="R85">
-        <v>1110</v>
+        <v>1514</v>
       </c>
       <c r="S85">
-        <v>1634</v>
+        <v>2217</v>
       </c>
       <c r="T85">
-        <v>1730</v>
+        <v>2287</v>
       </c>
       <c r="U85">
         <v>0</v>
@@ -28654,13 +28654,13 @@
         <v>0</v>
       </c>
       <c r="BD85">
-        <v>104.225352112676</v>
+        <v>142.1596244131455</v>
       </c>
       <c r="BE85">
-        <v>62.12927756653993</v>
+        <v>84.29657794676807</v>
       </c>
       <c r="BF85">
-        <v>233.2584269662921</v>
+        <v>308.3595505617978</v>
       </c>
       <c r="BG85">
         <v>0</v>
@@ -28768,13 +28768,13 @@
         <v>0</v>
       </c>
       <c r="CP85">
-        <v>0.9142574746725969</v>
+        <v>1.247014249238119</v>
       </c>
       <c r="CQ85">
-        <v>0.4344704724932862</v>
+        <v>0.5894865590683082</v>
       </c>
       <c r="CR85">
-        <v>0.3239700374531835</v>
+        <v>0.4282771535580525</v>
       </c>
       <c r="CS85">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="DA85">
-        <v>0.5311688950326302</v>
+        <v>0.7203738650662213</v>
       </c>
     </row>
     <row r="86" spans="1:105">
@@ -29174,13 +29174,13 @@
         <v>0</v>
       </c>
       <c r="R87">
-        <v>6613</v>
+        <v>9013</v>
       </c>
       <c r="S87">
-        <v>6501</v>
+        <v>8609</v>
       </c>
       <c r="T87">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="U87">
         <v>0</v>
@@ -29288,13 +29288,13 @@
         <v>0</v>
       </c>
       <c r="BD87">
-        <v>107.5284552845528</v>
+        <v>146.5528455284552</v>
       </c>
       <c r="BE87">
-        <v>79.73426001635319</v>
+        <v>105.5887162714636</v>
       </c>
       <c r="BF87">
-        <v>54.54545454545455</v>
+        <v>73.24675324675326</v>
       </c>
       <c r="BG87">
         <v>0</v>
@@ -29402,13 +29402,13 @@
         <v>0</v>
       </c>
       <c r="CP87">
-        <v>0.9432320638995861</v>
+        <v>1.285551276565397</v>
       </c>
       <c r="CQ87">
-        <v>0.5575822378765958</v>
+        <v>0.738382631268976</v>
       </c>
       <c r="CR87">
-        <v>0.07575757575757577</v>
+        <v>0.1017316017316017</v>
       </c>
       <c r="CS87">
         <v>0</v>
@@ -29435,7 +29435,7 @@
         <v>0</v>
       </c>
       <c r="DA87">
-        <v>0.7119832062898864</v>
+        <v>0.9582782405403864</v>
       </c>
     </row>
     <row r="88" spans="1:105">
@@ -29491,13 +29491,13 @@
         <v>0</v>
       </c>
       <c r="R88">
-        <v>5706</v>
+        <v>7694</v>
       </c>
       <c r="S88">
-        <v>3650</v>
+        <v>4915</v>
       </c>
       <c r="T88">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="U88">
         <v>0</v>
@@ -29605,13 +29605,13 @@
         <v>0</v>
       </c>
       <c r="BD88">
-        <v>100.7237422771403</v>
+        <v>135.8164165931156</v>
       </c>
       <c r="BE88">
-        <v>55.75356415478616</v>
+        <v>75.07637474541752</v>
       </c>
       <c r="BF88">
-        <v>75.33834586466165</v>
+        <v>99.24812030075188</v>
       </c>
       <c r="BG88">
         <v>0</v>
@@ -29719,13 +29719,13 @@
         <v>0</v>
       </c>
       <c r="CP88">
-        <v>0.8835415989222836</v>
+        <v>1.191372075378207</v>
       </c>
       <c r="CQ88">
-        <v>0.3898850640194836</v>
+        <v>0.5250096136043183</v>
       </c>
       <c r="CR88">
-        <v>0.1046365914786967</v>
+        <v>0.137844611528822</v>
       </c>
       <c r="CS88">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="DA88">
-        <v>0.6097242751839194</v>
+        <v>0.8217218203460617</v>
       </c>
     </row>
     <row r="89" spans="1:105">
@@ -30442,13 +30442,13 @@
         <v>0</v>
       </c>
       <c r="R91">
-        <v>2827</v>
+        <v>3934</v>
       </c>
       <c r="S91">
-        <v>5262</v>
+        <v>7032</v>
       </c>
       <c r="T91">
-        <v>2094</v>
+        <v>2818</v>
       </c>
       <c r="U91">
         <v>0</v>
@@ -30556,13 +30556,13 @@
         <v>0</v>
       </c>
       <c r="BD91">
-        <v>98.27346465816917</v>
+        <v>136.7555040556199</v>
       </c>
       <c r="BE91">
-        <v>67.44712668233284</v>
+        <v>90.13458662678914</v>
       </c>
       <c r="BF91">
-        <v>144.7465437788019</v>
+        <v>194.7926267281106</v>
       </c>
       <c r="BG91">
         <v>0</v>
@@ -30670,13 +30670,13 @@
         <v>0</v>
       </c>
       <c r="CP91">
-        <v>0.8620479355979752</v>
+        <v>1.19960968469842</v>
       </c>
       <c r="CQ91">
-        <v>0.4716582285477821</v>
+        <v>0.6303117945929311</v>
       </c>
       <c r="CR91">
-        <v>0.201036866359447</v>
+        <v>0.2705453149001537</v>
       </c>
       <c r="CS91">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="DA91">
-        <v>0.5362839925638271</v>
+        <v>0.7162115675460431</v>
       </c>
     </row>
     <row r="92" spans="1:105">
@@ -31393,13 +31393,13 @@
         <v>0</v>
       </c>
       <c r="R94">
-        <v>2746</v>
+        <v>3754</v>
       </c>
       <c r="S94">
-        <v>480</v>
+        <v>603</v>
       </c>
       <c r="T94">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="U94">
         <v>0</v>
@@ -31507,13 +31507,13 @@
         <v>0</v>
       </c>
       <c r="BD94">
-        <v>73.58642251004913</v>
+        <v>100.5984814649397</v>
       </c>
       <c r="BE94">
-        <v>35.73200992555832</v>
+        <v>44.88833746898263</v>
       </c>
       <c r="BF94">
-        <v>49.6875</v>
+        <v>64.6875</v>
       </c>
       <c r="BG94">
         <v>0</v>
@@ -31621,13 +31621,13 @@
         <v>0</v>
       </c>
       <c r="CP94">
-        <v>0.6454949342986765</v>
+        <v>0.8824428198678922</v>
       </c>
       <c r="CQ94">
-        <v>0.2498741952836246</v>
+        <v>0.3139044578250534</v>
       </c>
       <c r="CR94">
-        <v>0.06901041666666667</v>
+        <v>0.08984375</v>
       </c>
       <c r="CS94">
         <v>0</v>
@@ -31654,7 +31654,7 @@
         <v>0</v>
       </c>
       <c r="DA94">
-        <v>0.5310641447282101</v>
+        <v>0.7187347914735297</v>
       </c>
     </row>
     <row r="95" spans="1:105">
@@ -31710,13 +31710,13 @@
         <v>0</v>
       </c>
       <c r="R95">
-        <v>3853</v>
+        <v>5109</v>
       </c>
       <c r="S95">
-        <v>4176</v>
+        <v>5730</v>
       </c>
       <c r="T95">
-        <v>544</v>
+        <v>694</v>
       </c>
       <c r="U95">
         <v>0</v>
@@ -31824,13 +31824,13 @@
         <v>0</v>
       </c>
       <c r="BD95">
-        <v>70.31021897810218</v>
+        <v>93.22992700729927</v>
       </c>
       <c r="BE95">
-        <v>68.01302931596091</v>
+        <v>93.32247557003257</v>
       </c>
       <c r="BF95">
-        <v>82.42424242424242</v>
+        <v>105.1515151515152</v>
       </c>
       <c r="BG95">
         <v>0</v>
@@ -31938,13 +31938,13 @@
         <v>0</v>
       </c>
       <c r="CP95">
-        <v>0.6167563068254578</v>
+        <v>0.8178063772570111</v>
       </c>
       <c r="CQ95">
-        <v>0.4756155896221043</v>
+        <v>0.6526047242659619</v>
       </c>
       <c r="CR95">
-        <v>0.1144781144781145</v>
+        <v>0.1460437710437711</v>
       </c>
       <c r="CS95">
         <v>0</v>
@@ -31971,7 +31971,7 @@
         <v>0</v>
       </c>
       <c r="DA95">
-        <v>0.5251260151530257</v>
+        <v>0.6926453635173527</v>
       </c>
     </row>
     <row r="96" spans="1:105">
@@ -32661,13 +32661,13 @@
         <v>0</v>
       </c>
       <c r="R98">
-        <v>3489</v>
+        <v>4720</v>
       </c>
       <c r="S98">
-        <v>4995</v>
+        <v>6765</v>
       </c>
       <c r="T98">
-        <v>937</v>
+        <v>1218</v>
       </c>
       <c r="U98">
         <v>0</v>
@@ -32775,13 +32775,13 @@
         <v>0</v>
       </c>
       <c r="BD98">
-        <v>106.751657317695</v>
+        <v>144.416114227435</v>
       </c>
       <c r="BE98">
-        <v>83.18068276436304</v>
+        <v>112.6561199000833</v>
       </c>
       <c r="BF98">
-        <v>139.8507462686567</v>
+        <v>181.7910447761194</v>
       </c>
       <c r="BG98">
         <v>0</v>
@@ -32889,13 +32889,13 @@
         <v>0</v>
       </c>
       <c r="CP98">
-        <v>0.9364180466464477</v>
+        <v>1.266808019538903</v>
       </c>
       <c r="CQ98">
-        <v>0.581683096254287</v>
+        <v>0.7878050342663165</v>
       </c>
       <c r="CR98">
-        <v>0.1942371475953565</v>
+        <v>0.2524875621890547</v>
       </c>
       <c r="CS98">
         <v>0</v>
@@ -32922,7 +32922,7 @@
         <v>0</v>
       </c>
       <c r="DA98">
-        <v>0.6721762183391239</v>
+        <v>0.9091807014377015</v>
       </c>
     </row>
     <row r="99" spans="1:105">
@@ -32978,13 +32978,13 @@
         <v>0</v>
       </c>
       <c r="R99">
-        <v>4878</v>
+        <v>6124</v>
       </c>
       <c r="S99">
-        <v>7523</v>
+        <v>9830</v>
       </c>
       <c r="T99">
-        <v>2175</v>
+        <v>2942</v>
       </c>
       <c r="U99">
         <v>0</v>
@@ -33092,13 +33092,13 @@
         <v>0</v>
       </c>
       <c r="BD99">
-        <v>128.1997371879106</v>
+        <v>160.946123521682</v>
       </c>
       <c r="BE99">
-        <v>100.2175843694494</v>
+        <v>130.9502664298401</v>
       </c>
       <c r="BF99">
-        <v>101.0844306738962</v>
+        <v>136.7312161115414</v>
       </c>
       <c r="BG99">
         <v>0</v>
@@ -33206,13 +33206,13 @@
         <v>0</v>
       </c>
       <c r="CP99">
-        <v>1.124559098139567</v>
+        <v>1.411808101067386</v>
       </c>
       <c r="CQ99">
-        <v>0.7008222683178278</v>
+        <v>0.9157361288800009</v>
       </c>
       <c r="CR99">
-        <v>0.1403950426026336</v>
+        <v>0.1899044668215853</v>
       </c>
       <c r="CS99">
         <v>0</v>
@@ -33239,7 +33239,7 @@
         <v>0</v>
       </c>
       <c r="DA99">
-        <v>0.7161952558617561</v>
+        <v>0.9177090670047895</v>
       </c>
     </row>
     <row r="100" spans="1:105">
@@ -33295,13 +33295,13 @@
         <v>0</v>
       </c>
       <c r="R100">
-        <v>3257</v>
+        <v>4549</v>
       </c>
       <c r="S100">
-        <v>5790</v>
+        <v>7741</v>
       </c>
       <c r="T100">
-        <v>1499</v>
+        <v>2057</v>
       </c>
       <c r="U100">
         <v>0</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="BD100">
-        <v>98.39879154078551</v>
+        <v>137.4320241691843</v>
       </c>
       <c r="BE100">
-        <v>77.87491593813048</v>
+        <v>104.1156691324815</v>
       </c>
       <c r="BF100">
-        <v>191.7697228144989</v>
+        <v>263.1556503198294</v>
       </c>
       <c r="BG100">
         <v>0</v>
@@ -33523,13 +33523,13 @@
         <v>0</v>
       </c>
       <c r="CP100">
-        <v>0.8631472942174168</v>
+        <v>1.205544071659511</v>
       </c>
       <c r="CQ100">
-        <v>0.5445798317351782</v>
+        <v>0.7280816023250457</v>
       </c>
       <c r="CR100">
-        <v>0.2663468372423596</v>
+        <v>0.3654939587775409</v>
       </c>
       <c r="CS100">
         <v>0</v>
@@ -33556,7 +33556,7 @@
         <v>0</v>
       </c>
       <c r="DA100">
-        <v>0.5914514663120524</v>
+        <v>0.7915422975217649</v>
       </c>
     </row>
     <row r="101" spans="1:105">
@@ -34880,13 +34880,13 @@
         <v>0</v>
       </c>
       <c r="R105">
-        <v>5065</v>
+        <v>6661</v>
       </c>
       <c r="S105">
-        <v>2589</v>
+        <v>3337</v>
       </c>
       <c r="T105">
-        <v>393</v>
+        <v>515</v>
       </c>
       <c r="U105">
         <v>0</v>
@@ -34994,13 +34994,13 @@
         <v>0</v>
       </c>
       <c r="BD105">
-        <v>72.72074659009331</v>
+        <v>95.63531945441493</v>
       </c>
       <c r="BE105">
-        <v>49.08056872037916</v>
+        <v>63.26066350710902</v>
       </c>
       <c r="BF105">
-        <v>88.64661654135338</v>
+        <v>116.1654135338346</v>
       </c>
       <c r="BG105">
         <v>0</v>
@@ -35108,13 +35108,13 @@
         <v>0</v>
       </c>
       <c r="CP105">
-        <v>0.6379012858780115</v>
+        <v>0.8389063110036397</v>
       </c>
       <c r="CQ105">
-        <v>0.3432207602823718</v>
+        <v>0.4423822622874757</v>
       </c>
       <c r="CR105">
-        <v>0.1231203007518797</v>
+        <v>0.1613408521303258</v>
       </c>
       <c r="CS105">
         <v>0</v>
@@ -35141,7 +35141,7 @@
         <v>0</v>
       </c>
       <c r="DA105">
-        <v>0.4973499579471637</v>
+        <v>0.6503082786453004</v>
       </c>
     </row>
     <row r="106" spans="1:105">
@@ -35514,13 +35514,13 @@
         <v>0</v>
       </c>
       <c r="R107">
-        <v>3383</v>
+        <v>5084</v>
       </c>
       <c r="S107">
-        <v>1950</v>
+        <v>2682</v>
       </c>
       <c r="T107">
-        <v>738</v>
+        <v>993</v>
       </c>
       <c r="U107">
         <v>0</v>
@@ -35628,13 +35628,13 @@
         <v>0</v>
       </c>
       <c r="BD107">
-        <v>53.51436857368837</v>
+        <v>80.42182968626416</v>
       </c>
       <c r="BE107">
-        <v>39.60731211916046</v>
+        <v>54.47528774542992</v>
       </c>
       <c r="BF107">
-        <v>169.0076335877862</v>
+        <v>227.4045801526717</v>
       </c>
       <c r="BG107">
         <v>0</v>
@@ -35742,13 +35742,13 @@
         <v>0</v>
       </c>
       <c r="CP107">
-        <v>0.4694242857341085</v>
+        <v>0.7054546463707383</v>
       </c>
       <c r="CQ107">
-        <v>0.2769742106234998</v>
+        <v>0.3809460681498596</v>
       </c>
       <c r="CR107">
-        <v>0.2347328244274809</v>
+        <v>0.3158396946564885</v>
       </c>
       <c r="CS107">
         <v>0</v>
@@ -35775,7 +35775,7 @@
         <v>0</v>
       </c>
       <c r="DA107">
-        <v>0.3758927295370899</v>
+        <v>0.5378149241947059</v>
       </c>
     </row>
     <row r="108" spans="1:105">
@@ -37416,13 +37416,13 @@
         <v>0</v>
       </c>
       <c r="R113">
-        <v>4580</v>
+        <v>6719</v>
       </c>
       <c r="S113">
-        <v>3761</v>
+        <v>4941</v>
       </c>
       <c r="T113">
-        <v>1994</v>
+        <v>2639</v>
       </c>
       <c r="U113">
         <v>0</v>
@@ -37530,13 +37530,13 @@
         <v>0</v>
       </c>
       <c r="BD113">
-        <v>77.43026204564666</v>
+        <v>113.592561284869</v>
       </c>
       <c r="BE113">
-        <v>72.00382897255903</v>
+        <v>94.594767070836</v>
       </c>
       <c r="BF113">
-        <v>246.680412371134</v>
+        <v>326.4742268041237</v>
       </c>
       <c r="BG113">
         <v>0</v>
@@ -37644,13 +37644,13 @@
         <v>0</v>
       </c>
       <c r="CP113">
-        <v>0.6792128249618128</v>
+        <v>0.9964259761830611</v>
       </c>
       <c r="CQ113">
-        <v>0.5035232795283848</v>
+        <v>0.6615018676282237</v>
       </c>
       <c r="CR113">
-        <v>0.3426116838487972</v>
+        <v>0.4534364261168385</v>
       </c>
       <c r="CS113">
         <v>0</v>
@@ -37677,7 +37677,7 @@
         <v>0</v>
       </c>
       <c r="DA113">
-        <v>0.5843852930466291</v>
+        <v>0.8029502067492009</v>
       </c>
     </row>
     <row r="114" spans="1:105">
@@ -37733,13 +37733,13 @@
         <v>0</v>
       </c>
       <c r="R114">
-        <v>4253</v>
+        <v>5777</v>
       </c>
       <c r="S114">
-        <v>6339</v>
+        <v>8344</v>
       </c>
       <c r="T114">
-        <v>1668</v>
+        <v>2187</v>
       </c>
       <c r="U114">
         <v>0</v>
@@ -37847,13 +37847,13 @@
         <v>0</v>
       </c>
       <c r="BD114">
-        <v>94.37130177514794</v>
+        <v>128.1878698224852</v>
       </c>
       <c r="BE114">
-        <v>78.22706705059645</v>
+        <v>102.9699712052653</v>
       </c>
       <c r="BF114">
-        <v>123.2512315270936</v>
+        <v>161.6009852216749</v>
       </c>
       <c r="BG114">
         <v>0</v>
@@ -37961,13 +37961,13 @@
         <v>0</v>
       </c>
       <c r="CP114">
-        <v>0.8278184366241047</v>
+        <v>1.124454998442853</v>
       </c>
       <c r="CQ114">
-        <v>0.5470424269272479</v>
+        <v>0.720069728708149</v>
       </c>
       <c r="CR114">
-        <v>0.1711822660098522</v>
+        <v>0.2244458128078818</v>
       </c>
       <c r="CS114">
         <v>0</v>
@@ -37994,7 +37994,7 @@
         <v>0</v>
       </c>
       <c r="DA114">
-        <v>0.5869098103357406</v>
+        <v>0.7820745875188737</v>
       </c>
     </row>
     <row r="115" spans="1:105">
@@ -38050,13 +38050,13 @@
         <v>0</v>
       </c>
       <c r="R115">
-        <v>3018</v>
+        <v>3852</v>
       </c>
       <c r="S115">
-        <v>5423</v>
+        <v>7350</v>
       </c>
       <c r="T115">
-        <v>2289</v>
+        <v>3044</v>
       </c>
       <c r="U115">
         <v>0</v>
@@ -38164,13 +38164,13 @@
         <v>0</v>
       </c>
       <c r="BD115">
-        <v>100.0995024875622</v>
+        <v>127.7611940298508</v>
       </c>
       <c r="BE115">
-        <v>82.89936305732483</v>
+        <v>112.3566878980892</v>
       </c>
       <c r="BF115">
-        <v>165.4698795180723</v>
+        <v>220.0481927710844</v>
       </c>
       <c r="BG115">
         <v>0</v>
@@ -38278,13 +38278,13 @@
         <v>0</v>
       </c>
       <c r="CP115">
-        <v>0.8780658112944052</v>
+        <v>1.120712228332024</v>
       </c>
       <c r="CQ115">
-        <v>0.5797158255756981</v>
+        <v>0.7857111041824417</v>
       </c>
       <c r="CR115">
-        <v>0.2298192771084338</v>
+        <v>0.3056224899598394</v>
       </c>
       <c r="CS115">
         <v>0</v>
@@ -38311,7 +38311,7 @@
         <v>0</v>
       </c>
       <c r="DA115">
-        <v>0.5892896654472505</v>
+        <v>0.7729213223445582</v>
       </c>
     </row>
     <row r="116" spans="1:105">
@@ -38367,13 +38367,13 @@
         <v>0</v>
       </c>
       <c r="R116">
-        <v>2125</v>
+        <v>2695</v>
       </c>
       <c r="S116">
-        <v>2371</v>
+        <v>2987</v>
       </c>
       <c r="T116">
-        <v>1069</v>
+        <v>1422</v>
       </c>
       <c r="U116">
         <v>0</v>
@@ -38481,13 +38481,13 @@
         <v>0</v>
       </c>
       <c r="BD116">
-        <v>98.91388673390227</v>
+        <v>125.4460822342902</v>
       </c>
       <c r="BE116">
-        <v>72.10339584389253</v>
+        <v>90.83628991383678</v>
       </c>
       <c r="BF116">
-        <v>116.4065335753176</v>
+        <v>154.8457350272232</v>
       </c>
       <c r="BG116">
         <v>0</v>
@@ -38595,13 +38595,13 @@
         <v>0</v>
       </c>
       <c r="CP116">
-        <v>0.8676656731044059</v>
+        <v>1.100404230125352</v>
       </c>
       <c r="CQ116">
-        <v>0.5042195513558918</v>
+        <v>0.6352188105862712</v>
       </c>
       <c r="CR116">
-        <v>0.16167574107683</v>
+        <v>0.2150635208711433</v>
       </c>
       <c r="CS116">
         <v>0</v>
@@ -38628,7 +38628,7 @@
         <v>0</v>
       </c>
       <c r="DA116">
-        <v>0.5295026835672326</v>
+        <v>0.6687443238155047</v>
       </c>
     </row>
     <row r="117" spans="1:105">
@@ -39635,13 +39635,13 @@
         <v>0</v>
       </c>
       <c r="R120">
-        <v>3414</v>
+        <v>4635</v>
       </c>
       <c r="S120">
-        <v>5180</v>
+        <v>6873</v>
       </c>
       <c r="T120">
-        <v>2110</v>
+        <v>2796</v>
       </c>
       <c r="U120">
         <v>0</v>
@@ -39749,13 +39749,13 @@
         <v>0</v>
       </c>
       <c r="BD120">
-        <v>94.04958677685951</v>
+        <v>127.6859504132232</v>
       </c>
       <c r="BE120">
-        <v>73.85931558935361</v>
+        <v>97.9990494296578</v>
       </c>
       <c r="BF120">
-        <v>175.8333333333333</v>
+        <v>233</v>
       </c>
       <c r="BG120">
         <v>0</v>
@@ -39863,13 +39863,13 @@
         <v>0</v>
       </c>
       <c r="CP120">
-        <v>0.8249963752356098</v>
+        <v>1.120052196607221</v>
       </c>
       <c r="CQ120">
-        <v>0.5164987104150602</v>
+        <v>0.685308037969635</v>
       </c>
       <c r="CR120">
-        <v>0.244212962962963</v>
+        <v>0.3236111111111111</v>
       </c>
       <c r="CS120">
         <v>0</v>
@@ -39896,7 +39896,7 @@
         <v>0</v>
       </c>
       <c r="DA120">
-        <v>0.5508767773036922</v>
+        <v>0.7309263043674927</v>
       </c>
     </row>
     <row r="121" spans="1:105">
@@ -39952,7 +39952,7 @@
         <v>0</v>
       </c>
       <c r="R121">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="S121">
         <v>0</v>
@@ -40066,7 +40066,7 @@
         <v>0</v>
       </c>
       <c r="BD121">
-        <v>67.08661417322834</v>
+        <v>74.1732283464567</v>
       </c>
       <c r="BE121">
         <v>0</v>
@@ -40180,7 +40180,7 @@
         <v>0</v>
       </c>
       <c r="CP121">
-        <v>0.5884790716949855</v>
+        <v>0.6506423539162868</v>
       </c>
       <c r="CQ121">
         <v>0</v>
@@ -40213,7 +40213,7 @@
         <v>0</v>
       </c>
       <c r="DA121">
-        <v>0.3596511074065253</v>
+        <v>0.3976065729935698</v>
       </c>
     </row>
     <row r="122" spans="1:105">
@@ -40269,13 +40269,13 @@
         <v>0</v>
       </c>
       <c r="R122">
-        <v>3499</v>
+        <v>4640</v>
       </c>
       <c r="S122">
-        <v>4127</v>
+        <v>5438</v>
       </c>
       <c r="T122">
-        <v>1719</v>
+        <v>2340</v>
       </c>
       <c r="U122">
         <v>0</v>
@@ -40383,13 +40383,13 @@
         <v>0</v>
       </c>
       <c r="BD122">
-        <v>64.16259168704157</v>
+        <v>85.08557457212714</v>
       </c>
       <c r="BE122">
-        <v>59.7394451145959</v>
+        <v>78.71652593486128</v>
       </c>
       <c r="BF122">
-        <v>99.55598455598457</v>
+        <v>135.5212355212355</v>
       </c>
       <c r="BG122">
         <v>0</v>
@@ -40497,13 +40497,13 @@
         <v>0</v>
       </c>
       <c r="CP122">
-        <v>0.5628297516407155</v>
+        <v>0.7463646892291854</v>
       </c>
       <c r="CQ122">
-        <v>0.4177583574447266</v>
+        <v>0.5504652163277013</v>
       </c>
       <c r="CR122">
-        <v>0.1382722007722008</v>
+        <v>0.1882239382239382</v>
       </c>
       <c r="CS122">
         <v>0</v>
@@ -40530,7 +40530,7 @@
         <v>0</v>
       </c>
       <c r="DA122">
-        <v>0.435622175749729</v>
+        <v>0.5739660079738002</v>
       </c>
     </row>
     <row r="123" spans="1:105">
@@ -40586,7 +40586,7 @@
         <v>0</v>
       </c>
       <c r="R123">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="S123">
         <v>0</v>
@@ -40700,7 +40700,7 @@
         <v>0</v>
       </c>
       <c r="BD123">
-        <v>43.56164383561644</v>
+        <v>104.3835616438356</v>
       </c>
       <c r="BE123">
         <v>0</v>
@@ -40814,7 +40814,7 @@
         <v>0</v>
       </c>
       <c r="CP123">
-        <v>0.3821196827685652</v>
+        <v>0.9156452775775054</v>
       </c>
       <c r="CQ123">
         <v>0</v>
@@ -40847,7 +40847,7 @@
         <v>0</v>
       </c>
       <c r="DA123">
-        <v>0.3821196827685652</v>
+        <v>0.9156452775775054</v>
       </c>
     </row>
     <row r="124" spans="1:105">
@@ -40903,13 +40903,13 @@
         <v>0</v>
       </c>
       <c r="R124">
-        <v>4481</v>
+        <v>6052</v>
       </c>
       <c r="S124">
-        <v>5619</v>
+        <v>7424</v>
       </c>
       <c r="T124">
-        <v>1300</v>
+        <v>1712</v>
       </c>
       <c r="U124">
         <v>0</v>
@@ -41017,13 +41017,13 @@
         <v>0</v>
       </c>
       <c r="BD124">
-        <v>91.26272912423623</v>
+        <v>123.2586558044806</v>
       </c>
       <c r="BE124">
-        <v>67.14598685520811</v>
+        <v>88.71539533957377</v>
       </c>
       <c r="BF124">
-        <v>114.2020497803807</v>
+        <v>150.3953147877013</v>
       </c>
       <c r="BG124">
         <v>0</v>
@@ -41131,13 +41131,13 @@
         <v>0</v>
       </c>
       <c r="CP124">
-        <v>0.8005502554757564</v>
+        <v>1.081216278986672</v>
       </c>
       <c r="CQ124">
-        <v>0.4695523556308259</v>
+        <v>0.6203873799970194</v>
       </c>
       <c r="CR124">
-        <v>0.1586139580283065</v>
+        <v>0.2088823816495852</v>
       </c>
       <c r="CS124">
         <v>0</v>
@@ -41164,7 +41164,7 @@
         <v>0</v>
       </c>
       <c r="DA124">
-        <v>0.5379234129303164</v>
+        <v>0.715841198567246</v>
       </c>
     </row>
     <row r="125" spans="1:105">
@@ -41537,13 +41537,13 @@
         <v>0</v>
       </c>
       <c r="R126">
-        <v>5602</v>
+        <v>7438</v>
       </c>
       <c r="S126">
-        <v>1438</v>
+        <v>1897</v>
       </c>
       <c r="T126">
-        <v>205</v>
+        <v>277</v>
       </c>
       <c r="U126">
         <v>0</v>
@@ -41651,13 +41651,13 @@
         <v>0</v>
       </c>
       <c r="BD126">
-        <v>60.73726057101557</v>
+        <v>80.64329598843517</v>
       </c>
       <c r="BE126">
-        <v>41.10528823249166</v>
+        <v>54.22582181991424</v>
       </c>
       <c r="BF126">
-        <v>101.6528925619835</v>
+        <v>137.3553719008264</v>
       </c>
       <c r="BG126">
         <v>0</v>
@@ -41765,13 +41765,13 @@
         <v>0</v>
       </c>
       <c r="CP126">
-        <v>0.5327829874650488</v>
+        <v>0.7073973332318875</v>
       </c>
       <c r="CQ126">
-        <v>0.2874495680593822</v>
+        <v>0.3792015511882115</v>
       </c>
       <c r="CR126">
-        <v>0.1411845730027548</v>
+        <v>0.1907713498622589</v>
       </c>
       <c r="CS126">
         <v>0</v>
@@ -41798,7 +41798,7 @@
         <v>0</v>
       </c>
       <c r="DA126">
-        <v>0.4602606434513227</v>
+        <v>0.6104931946585832</v>
       </c>
     </row>
     <row r="127" spans="1:105">
@@ -41854,13 +41854,13 @@
         <v>0</v>
       </c>
       <c r="R127">
-        <v>5994</v>
+        <v>7476</v>
       </c>
       <c r="S127">
-        <v>3898</v>
+        <v>5166</v>
       </c>
       <c r="T127">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="U127">
         <v>0</v>
@@ -41968,13 +41968,13 @@
         <v>0</v>
       </c>
       <c r="BD127">
-        <v>97.04263356718835</v>
+        <v>121.036157582299</v>
       </c>
       <c r="BE127">
-        <v>69.2977777777778</v>
+        <v>91.84000000000002</v>
       </c>
       <c r="BF127">
-        <v>127.8260869565217</v>
+        <v>181.3043478260869</v>
       </c>
       <c r="BG127">
         <v>0</v>
@@ -42082,13 +42082,13 @@
         <v>0</v>
       </c>
       <c r="CP127">
-        <v>0.851251171642003</v>
+        <v>1.061720680546482</v>
       </c>
       <c r="CQ127">
-        <v>0.4845998445998447</v>
+        <v>0.6422377622377624</v>
       </c>
       <c r="CR127">
-        <v>0.177536231884058</v>
+        <v>0.2518115942028985</v>
       </c>
       <c r="CS127">
         <v>0</v>
@@ -42115,7 +42115,7 @@
         <v>0</v>
       </c>
       <c r="DA127">
-        <v>0.6577101935675718</v>
+        <v>0.8279297735057889</v>
       </c>
     </row>
     <row r="128" spans="1:105">
@@ -42171,13 +42171,13 @@
         <v>0</v>
       </c>
       <c r="R128">
-        <v>3413</v>
+        <v>4539</v>
       </c>
       <c r="S128">
-        <v>1149</v>
+        <v>1496</v>
       </c>
       <c r="T128">
-        <v>282</v>
+        <v>384</v>
       </c>
       <c r="U128">
         <v>0</v>
@@ -42285,13 +42285,13 @@
         <v>0</v>
       </c>
       <c r="BD128">
-        <v>74.00795084929527</v>
+        <v>98.42428623057462</v>
       </c>
       <c r="BE128">
-        <v>62.78688524590164</v>
+        <v>81.74863387978142</v>
       </c>
       <c r="BF128">
-        <v>75.53571428571428</v>
+        <v>102.8571428571429</v>
       </c>
       <c r="BG128">
         <v>0</v>
@@ -42399,13 +42399,13 @@
         <v>0</v>
       </c>
       <c r="CP128">
-        <v>0.6491925513096076</v>
+        <v>0.8633709318471459</v>
       </c>
       <c r="CQ128">
-        <v>0.4390691275937177</v>
+        <v>0.5716687683900799</v>
       </c>
       <c r="CR128">
-        <v>0.1049107142857143</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="CS128">
         <v>0</v>
@@ -42432,7 +42432,7 @@
         <v>0</v>
       </c>
       <c r="DA128">
-        <v>0.5779790598842025</v>
+        <v>0.7226653579934399</v>
       </c>
     </row>
     <row r="129" spans="1:105">
@@ -43756,7 +43756,7 @@
         <v>0</v>
       </c>
       <c r="R133">
-        <v>2497</v>
+        <v>3294</v>
       </c>
       <c r="S133">
         <v>0</v>
@@ -43870,7 +43870,7 @@
         <v>0</v>
       </c>
       <c r="BD133">
-        <v>70.17330210772832</v>
+        <v>92.57142857142854</v>
       </c>
       <c r="BE133">
         <v>0</v>
@@ -43984,7 +43984,7 @@
         <v>0</v>
       </c>
       <c r="CP133">
-        <v>0.6155552816467397</v>
+        <v>0.8120300751879697</v>
       </c>
       <c r="CQ133">
         <v>0</v>
@@ -44017,7 +44017,7 @@
         <v>0</v>
       </c>
       <c r="DA133">
-        <v>0.6155552816467397</v>
+        <v>0.8120300751879697</v>
       </c>
     </row>
     <row r="134" spans="1:105">
@@ -47243,13 +47243,13 @@
         <v>0</v>
       </c>
       <c r="R144">
-        <v>2600</v>
+        <v>3385</v>
       </c>
       <c r="S144">
-        <v>1688</v>
+        <v>2240</v>
       </c>
       <c r="T144">
-        <v>317</v>
+        <v>425</v>
       </c>
       <c r="U144">
         <v>0</v>
@@ -47357,13 +47357,13 @@
         <v>0</v>
       </c>
       <c r="BD144">
-        <v>76.54563297350343</v>
+        <v>99.65652600588813</v>
       </c>
       <c r="BE144">
-        <v>51.99178644763861</v>
+        <v>68.99383983572896</v>
       </c>
       <c r="BF144">
-        <v>89.71698113207547</v>
+        <v>120.2830188679245</v>
       </c>
       <c r="BG144">
         <v>0</v>
@@ -47471,13 +47471,13 @@
         <v>0</v>
       </c>
       <c r="CP144">
-        <v>0.6714529208202056</v>
+        <v>0.8741800526832292</v>
       </c>
       <c r="CQ144">
-        <v>0.363578926207263</v>
+        <v>0.4824744044456571</v>
       </c>
       <c r="CR144">
-        <v>0.1246069182389937</v>
+        <v>0.167059748427673</v>
       </c>
       <c r="CS144">
         <v>0</v>
@@ -47504,7 +47504,7 @@
         <v>0</v>
       </c>
       <c r="DA144">
-        <v>0.4562535257783558</v>
+        <v>0.5784071667247747</v>
       </c>
     </row>
     <row r="145" spans="1:105">
@@ -51998,13 +51998,13 @@
         <v>0</v>
       </c>
       <c r="R159">
-        <v>3230</v>
+        <v>4342</v>
       </c>
       <c r="S159">
-        <v>2851</v>
+        <v>3879</v>
       </c>
       <c r="T159">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="U159">
         <v>0</v>
@@ -52112,13 +52112,13 @@
         <v>0</v>
       </c>
       <c r="BD159">
-        <v>108.1473214285714</v>
+        <v>145.3794642857143</v>
       </c>
       <c r="BE159">
-        <v>69.6214896214896</v>
+        <v>94.7252747252747</v>
       </c>
       <c r="BF159">
-        <v>91.5</v>
+        <v>109.5</v>
       </c>
       <c r="BG159">
         <v>0</v>
@@ -52226,13 +52226,13 @@
         <v>0</v>
       </c>
       <c r="CP159">
-        <v>0.9486607142857143</v>
+        <v>1.275258458646616</v>
       </c>
       <c r="CQ159">
-        <v>0.4868635637866406</v>
+        <v>0.6624145085683546</v>
       </c>
       <c r="CR159">
-        <v>0.1270833333333333</v>
+        <v>0.1520833333333333</v>
       </c>
       <c r="CS159">
         <v>0</v>
@@ -52259,7 +52259,7 @@
         <v>0</v>
       </c>
       <c r="DA159">
-        <v>0.6683818907603913</v>
+        <v>0.9007618471941452</v>
       </c>
     </row>
     <row r="160" spans="1:105">
@@ -52632,10 +52632,10 @@
         <v>0</v>
       </c>
       <c r="R161">
-        <v>708</v>
+        <v>978</v>
       </c>
       <c r="S161">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="T161">
         <v>0</v>
@@ -52746,10 +52746,10 @@
         <v>0</v>
       </c>
       <c r="BD161">
-        <v>75.1858407079646</v>
+        <v>103.858407079646</v>
       </c>
       <c r="BE161">
-        <v>54.14634146341464</v>
+        <v>75.36585365853658</v>
       </c>
       <c r="BF161">
         <v>0</v>
@@ -52860,10 +52860,10 @@
         <v>0</v>
       </c>
       <c r="CP161">
-        <v>0.6595249184909175</v>
+        <v>0.9110386585933862</v>
       </c>
       <c r="CQ161">
-        <v>0.378645744499403</v>
+        <v>0.5270339416680879</v>
       </c>
       <c r="CR161">
         <v>0</v>
@@ -52893,7 +52893,7 @@
         <v>0</v>
       </c>
       <c r="DA161">
-        <v>0.5508739916769909</v>
+        <v>0.5718663845638772</v>
       </c>
     </row>
     <row r="162" spans="1:105">
@@ -52949,10 +52949,10 @@
         <v>0</v>
       </c>
       <c r="R162">
-        <v>1869</v>
+        <v>2511</v>
       </c>
       <c r="S162">
-        <v>2974</v>
+        <v>4030</v>
       </c>
       <c r="T162">
         <v>0</v>
@@ -53063,10 +53063,10 @@
         <v>0</v>
       </c>
       <c r="BD162">
-        <v>95.51959114139693</v>
+        <v>128.3304940374787</v>
       </c>
       <c r="BE162">
-        <v>65.1003283473185</v>
+        <v>88.21597956950019</v>
       </c>
       <c r="BF162">
         <v>0</v>
@@ -53177,10 +53177,10 @@
         <v>0</v>
       </c>
       <c r="CP162">
-        <v>0.837891150363131</v>
+        <v>1.125706088048059</v>
       </c>
       <c r="CQ162">
-        <v>0.4552470513798496</v>
+        <v>0.6168949620244769</v>
       </c>
       <c r="CR162">
         <v>0</v>
@@ -53210,7 +53210,7 @@
         <v>0</v>
       </c>
       <c r="DA162">
-        <v>0.5269284059423197</v>
+        <v>0.6863429109268121</v>
       </c>
     </row>
     <row r="163" spans="1:105">
@@ -54854,7 +54854,7 @@
         <v>0</v>
       </c>
       <c r="S168">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="T168">
         <v>0</v>
@@ -54968,7 +54968,7 @@
         <v>0</v>
       </c>
       <c r="BE168">
-        <v>1.68141592920354</v>
+        <v>2.212389380530973</v>
       </c>
       <c r="BF168">
         <v>0</v>
@@ -55082,7 +55082,7 @@
         <v>0</v>
       </c>
       <c r="CQ168">
-        <v>0.01175815335107371</v>
+        <v>0.01547125440930751</v>
       </c>
       <c r="CR168">
         <v>0</v>
@@ -55112,7 +55112,7 @@
         <v>0</v>
       </c>
       <c r="DA168">
-        <v>0.01175815335107371</v>
+        <v>0.01547125440930751</v>
       </c>
     </row>
     <row r="169" spans="1:105">
@@ -55802,10 +55802,10 @@
         <v>0</v>
       </c>
       <c r="R171">
-        <v>1408</v>
+        <v>1951</v>
       </c>
       <c r="S171">
-        <v>1204</v>
+        <v>1607</v>
       </c>
       <c r="T171">
         <v>0</v>
@@ -55916,10 +55916,10 @@
         <v>0</v>
       </c>
       <c r="BD171">
-        <v>85.50607287449392</v>
+        <v>118.4817813765182</v>
       </c>
       <c r="BE171">
-        <v>62.16867469879519</v>
+        <v>82.97762478485372</v>
       </c>
       <c r="BF171">
         <v>0</v>
@@ -56030,10 +56030,10 @@
         <v>0</v>
       </c>
       <c r="CP171">
-        <v>0.7500532708288941</v>
+        <v>1.039313871723844</v>
       </c>
       <c r="CQ171">
-        <v>0.4347459769146517</v>
+        <v>0.5802631103835925</v>
       </c>
       <c r="CR171">
         <v>0</v>
@@ -56063,7 +56063,7 @@
         <v>0</v>
       </c>
       <c r="DA171">
-        <v>0.7740396111234868</v>
+        <v>0.8888504094009022</v>
       </c>
     </row>
     <row r="172" spans="1:105">
@@ -56119,10 +56119,10 @@
         <v>0</v>
       </c>
       <c r="R172">
-        <v>2228</v>
+        <v>2880</v>
       </c>
       <c r="S172">
-        <v>1688</v>
+        <v>2496</v>
       </c>
       <c r="T172">
         <v>0</v>
@@ -56233,10 +56233,10 @@
         <v>0</v>
       </c>
       <c r="BD172">
-        <v>98.7296898079764</v>
+        <v>127.6218611521418</v>
       </c>
       <c r="BE172">
-        <v>57.51277683134582</v>
+        <v>85.04258943781942</v>
       </c>
       <c r="BF172">
         <v>0</v>
@@ -56347,10 +56347,10 @@
         <v>0</v>
       </c>
       <c r="CP172">
-        <v>0.8660499105962842</v>
+        <v>1.119490010106508</v>
       </c>
       <c r="CQ172">
-        <v>0.4021872505688519</v>
+        <v>0.5947034226420939</v>
       </c>
       <c r="CR172">
         <v>0</v>
@@ -56380,7 +56380,7 @@
         <v>0</v>
       </c>
       <c r="DA172">
-        <v>0.5565014412110805</v>
+        <v>0.6651113558357933</v>
       </c>
     </row>
     <row r="173" spans="1:105">
@@ -57070,10 +57070,10 @@
         <v>0</v>
       </c>
       <c r="R175">
-        <v>1023</v>
+        <v>1133</v>
       </c>
       <c r="S175">
-        <v>399</v>
+        <v>542</v>
       </c>
       <c r="T175">
         <v>0</v>
@@ -57184,10 +57184,10 @@
         <v>0</v>
       </c>
       <c r="BD175">
-        <v>84.89626556016599</v>
+        <v>94.02489626556017</v>
       </c>
       <c r="BE175">
-        <v>47.78443113772455</v>
+        <v>64.91017964071857</v>
       </c>
       <c r="BF175">
         <v>0</v>
@@ -57298,10 +57298,10 @@
         <v>0</v>
       </c>
       <c r="CP175">
-        <v>0.7447040838611051</v>
+        <v>0.8247797918031594</v>
       </c>
       <c r="CQ175">
-        <v>0.3341568611029689</v>
+        <v>0.4539173401448851</v>
       </c>
       <c r="CR175">
         <v>0</v>
@@ -57331,7 +57331,7 @@
         <v>0</v>
       </c>
       <c r="DA175">
-        <v>0.5766614706243188</v>
+        <v>0.6729807000704833</v>
       </c>
     </row>
     <row r="176" spans="1:105">
@@ -57387,7 +57387,7 @@
         <v>0</v>
       </c>
       <c r="R176">
-        <v>2187</v>
+        <v>2794</v>
       </c>
       <c r="S176">
         <v>0</v>
@@ -57501,7 +57501,7 @@
         <v>0</v>
       </c>
       <c r="BD176">
-        <v>89.50886766712144</v>
+        <v>114.3519781718963</v>
       </c>
       <c r="BE176">
         <v>0</v>
@@ -57615,7 +57615,7 @@
         <v>0</v>
       </c>
       <c r="CP176">
-        <v>0.7851655058519424</v>
+        <v>1.003087527823652</v>
       </c>
       <c r="CQ176">
         <v>0</v>
@@ -57648,7 +57648,7 @@
         <v>0</v>
       </c>
       <c r="DA176">
-        <v>0.7846302873748792</v>
+        <v>1.002403759911025</v>
       </c>
     </row>
     <row r="177" spans="1:105">
@@ -58655,10 +58655,10 @@
         <v>0</v>
       </c>
       <c r="R180">
-        <v>1944</v>
+        <v>2420</v>
       </c>
       <c r="S180">
-        <v>468</v>
+        <v>639</v>
       </c>
       <c r="T180">
         <v>0</v>
@@ -58769,10 +58769,10 @@
         <v>0</v>
       </c>
       <c r="BD180">
-        <v>96</v>
+        <v>119.5061728395062</v>
       </c>
       <c r="BE180">
-        <v>66.85714285714286</v>
+        <v>91.28571428571429</v>
       </c>
       <c r="BF180">
         <v>0</v>
@@ -58883,10 +58883,10 @@
         <v>0</v>
       </c>
       <c r="CP180">
-        <v>0.8421052631578947</v>
+        <v>1.048299761750054</v>
       </c>
       <c r="CQ180">
-        <v>0.4675324675324676</v>
+        <v>0.6383616383616384</v>
       </c>
       <c r="CR180">
         <v>0</v>
@@ -58916,7 +58916,7 @@
         <v>0</v>
       </c>
       <c r="DA180">
-        <v>0.7458847285018216</v>
+        <v>0.9429945557420207</v>
       </c>
     </row>
     <row r="181" spans="1:105">
@@ -58975,7 +58975,7 @@
         <v>0</v>
       </c>
       <c r="S181">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="T181">
         <v>0</v>
@@ -59089,7 +59089,7 @@
         <v>0</v>
       </c>
       <c r="BE181">
-        <v>30.46875</v>
+        <v>45</v>
       </c>
       <c r="BF181">
         <v>0</v>
@@ -59203,7 +59203,7 @@
         <v>0</v>
       </c>
       <c r="CQ181">
-        <v>0.2130681818181818</v>
+        <v>0.3146853146853147</v>
       </c>
       <c r="CR181">
         <v>0</v>
@@ -59233,7 +59233,7 @@
         <v>0</v>
       </c>
       <c r="DA181">
-        <v>0.2130681818181818</v>
+        <v>0.3146853146853147</v>
       </c>
     </row>
     <row r="182" spans="1:105">
@@ -59289,13 +59289,13 @@
         <v>0</v>
       </c>
       <c r="R182">
-        <v>2194</v>
+        <v>3060</v>
       </c>
       <c r="S182">
-        <v>2829</v>
+        <v>3838</v>
       </c>
       <c r="T182">
-        <v>999</v>
+        <v>1349</v>
       </c>
       <c r="U182">
         <v>0</v>
@@ -59403,13 +59403,13 @@
         <v>0</v>
       </c>
       <c r="BD182">
-        <v>60.08215426745777</v>
+        <v>83.79735280693745</v>
       </c>
       <c r="BE182">
-        <v>47.65300393037619</v>
+        <v>64.64907355418303</v>
       </c>
       <c r="BF182">
-        <v>109.7802197802198</v>
+        <v>148.2417582417583</v>
       </c>
       <c r="BG182">
         <v>0</v>
@@ -59517,13 +59517,13 @@
         <v>0</v>
       </c>
       <c r="CP182">
-        <v>0.527036440942612</v>
+        <v>0.7350644983064689</v>
       </c>
       <c r="CQ182">
-        <v>0.3332377897229104</v>
+        <v>0.4520914234558254</v>
       </c>
       <c r="CR182">
-        <v>0.1524725274725275</v>
+        <v>0.2058913308913309</v>
       </c>
       <c r="CS182">
         <v>0</v>
@@ -59550,7 +59550,7 @@
         <v>0</v>
       </c>
       <c r="DA182">
-        <v>0.3640067067082492</v>
+        <v>0.494680391603591</v>
       </c>
     </row>
     <row r="183" spans="1:105">
